--- a/Coding/Interview Coding.xlsx
+++ b/Coding/Interview Coding.xlsx
@@ -11,22 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="389">
-  <si>
-    <t>Text fragment</t>
-  </si>
-  <si>
-    <t>Open coding</t>
-  </si>
-  <si>
-    <t>Axial coding</t>
-  </si>
-  <si>
-    <t>Selective coding</t>
-  </si>
-  <si>
-    <t>Interview</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="385">
   <si>
     <t>Dus die risico identificatie is denk ik heel goed te doen met behulp van AI.</t>
   </si>
@@ -103,174 +88,6 @@
     <t>Integration AI in GRC tool</t>
   </si>
   <si>
-    <t>Bij identificatie kun je natuurlijk prima een AI systeem vragen van nou: “We hebben dit proces op basis van wat jij weet over dat proces wat we erin stoppen, waar zie jij risico's? Dus waar heb jij het zien misgaan in zo een proces?” Dat kan je echt wel helpen.</t>
-  </si>
-  <si>
-    <t>AI in risk identification</t>
-  </si>
-  <si>
-    <t>Nou, hetzelfde geldt voor die kans maal impact. "Hoe groot acht jij nou, beste AI systeem, op basis van dit soortgelijke risico's die je hebt gezien, dat het ook daadwerkelijk gebeurt en wat is dan nou impact?”</t>
-  </si>
-  <si>
-    <t>AI in risk severity assessment</t>
-  </si>
-  <si>
-    <t>Oké, prioriteit beoordelen denk ik, dat is denk ik wel iets minder, maar dat is feitelijk gewoon een resultaat van je ernst beoordeling.</t>
-  </si>
-  <si>
-    <t>Less AI in risk prioritisation</t>
-  </si>
-  <si>
-    <t>Ja, weet je, als ik denk aan generatieve AI waarbij heel het internet in een AI systeem is gepropt, ja, dan kun je natuurlijk prima vragen: "Oké, dit hebben we als risico. Wij zien het als een hoog risico, want dit en dit en dit. Welke maatregelen kan ik treffen om te zorgen dat het risico beheerst wordt?” Nou, dan kun je je daar echt wel over laten adviseren.</t>
-  </si>
-  <si>
-    <t>AI in risk response / Generative AI implementation</t>
-  </si>
-  <si>
-    <t>Implementation AI / Generative AI</t>
-  </si>
-  <si>
-    <t>Kijk, het goed op papier krijgen van een control is het ook wel best wel uitdagend voor veel mensen, niet in de laatste plaats ook voor mij, dus daar zou je natuurlijk wel over kunnen laten adviseren hoe je, als je het risico weet, als je de maatregel weet, om dat zo goed mogelijk op te schrijven.</t>
-  </si>
-  <si>
-    <t>AI in control formulation / AI as advisor</t>
-  </si>
-  <si>
-    <t>Implementation AI / Supportive role AI</t>
-  </si>
-  <si>
-    <t>Nou ja, het is wel een techniek die hiervoor heel goed geschikt is. Als jij een bepaalde risico omschrijving geeft een bepaalde procesbeschrijving, ja, dan weet zo'n systeem gewoon van zo'n systeem op basis van wat die geleerd heeft.</t>
-  </si>
-  <si>
-    <t>Generative AI for risk severity assessment</t>
-  </si>
-  <si>
-    <t>Maar ik denk wel inderdaad op het moment dat je controls wil genereren. Nou zegt het al een beetje, genereren, generatief dan kun je LLM’s, dus generatieve AI, daar echt wel goed voor gebruiken ja.</t>
-  </si>
-  <si>
-    <t>Generative AI for control creation</t>
-  </si>
-  <si>
-    <t>Omdat dat toch een vrij kwalitatieve exercitie is waarmee je bezig bent, hè? Dus je bent toch aan het nadenken over risico's</t>
-  </si>
-  <si>
-    <t>Generative AI for qualitative tasks</t>
-  </si>
-  <si>
-    <t>Generative AI</t>
-  </si>
-  <si>
-    <t>Ik heb best wel veel uitdagingen gehad met goede control frameworks maken om het zo maar te zeggen. Het is best wel een vak. Ja, en ik zie echt wel dat AI erbij en een hele nuttige rol kan spelen, dus het is wel een leuk onderzoek om op die manier naar te kijken.</t>
-  </si>
-  <si>
-    <t>Usefulness of AI in control framework creation</t>
-  </si>
-  <si>
-    <t>Implementation AI / Subject relevance</t>
-  </si>
-  <si>
-    <t>Nou exact, dat je gewoon wat documenten van een proces uploadt, en dat er dan automatisch een control framework uitrolt. Ik zie het wel gebeuren hoor, in de toekomst moet ik heel eerlijk zeggen. Natuurlijk zit er dan nog een menselijk vlak in om dat weer te beoordelen.</t>
-  </si>
-  <si>
-    <t>AI implemented in GRC tool / human in the lead</t>
-  </si>
-  <si>
-    <t>Ook daar zitten heel veel maatregelen in, dus dat beweegt ook continu. Die technologie beweegt snel en daarmee bewegen ook je beheersingsmaatregelen mee.</t>
-  </si>
-  <si>
-    <t>Continuity of potential risks</t>
-  </si>
-  <si>
-    <t>Implementation AI / Continuous control creation</t>
-  </si>
-  <si>
-    <t>Ik had een heel raamwerk opgezet, voor CSD maatregelen en ik was daar een half jaar mee bezig geweest en vervolgens vraag ik aan ChatGPT: “Geef mij eens de…” Dat was toen net in opkomst, dat net op de markt, dus ik probeerde wat en vervolgens krijg ik gewoon exact het lijstje waar ik een half jaar aan gewerkt heb.</t>
-  </si>
-  <si>
-    <t>AI for risk control creation</t>
-  </si>
-  <si>
-    <t>AI experience / Implementation AI</t>
-  </si>
-  <si>
-    <t>Zover is ChatGPT nog niet, dat hij hele onderliggende standaarden van platformen precies kent, maar daar zou je wel, door het AI model te voeden met best practices, maar ook de standaarden vanuit de platformen, die link proberen te leggen.</t>
-  </si>
-  <si>
-    <t>AI capability for general risk identification</t>
-  </si>
-  <si>
-    <t>Dus dat eerste niveau, dat haalt AI nog wel op dit moment. Die kan gewoon prima zeggen: “Ja, je moet je verlies op data, maar dan moet je een backup maatregel treffen.” Dat dat snapt hij wel.</t>
-  </si>
-  <si>
-    <t>AI for risk identification / AI for risk severity assessment</t>
-  </si>
-  <si>
-    <t>Die is voor ons heel moeilijk te maken omdat wij geen techneuten zijn, maar wel verstand hebben van de control objectives, maar een AI zou wellicht wel die taal slag kunnen maken, omdat die alles kan leren van het platform door hem te trainen op het platform. Je kunt ze alles leren van die control objectives en die kan wellicht wel makkelijk die link leggen tussen de werkelijkheid en de best practices.</t>
-  </si>
-  <si>
-    <t>AI for control formulation</t>
-  </si>
-  <si>
-    <t>Zeker als je gaat kijken naar een implementatie, hè? Dus heb je imaging, maar ook text-to-speech en text-to-video. Die zouden heel erg kunnen helpen bij de implementatie van control frameworks.</t>
-  </si>
-  <si>
-    <t>Implementation of other generative AI types / Implementation of control frameworks</t>
-  </si>
-  <si>
-    <t>Dus we hebben allemaal control objectives, en daar zetten we toetsen bij uit, bij teams, om te checken of zij voldoen aan die controls. Je zou wellicht ook die data kunnen laten trainen door de AI. Dus dat is eigenlijk een soort monitoring tool AI</t>
-  </si>
-  <si>
-    <t>Process monitoring by AI / Continuous control monitoring</t>
-  </si>
-  <si>
-    <t>Ja, eigenlijk een interne AI slimme auditor, die kijkt waar het allemaal mis gaat, en waar het goed gaat op basis daarvan een soort adviezen geeft.</t>
-  </si>
-  <si>
-    <t>AI supported continuous auditing</t>
-  </si>
-  <si>
-    <t>Dus hoe zou je dat integreren, en met welke tools? Doe je dat in een chatbot of in een webbrowser? Ja, dat lijkt me wel cruciaal voor de gebruikers. En hoe integreer je dat dan weer met je control framework tool?</t>
-  </si>
-  <si>
-    <t>Choice on type of AI integration</t>
-  </si>
-  <si>
-    <t>Het zou ideaal zijn als dat gewoon een op een is. “Dit zijn de controls. Hij maakt ze aan. Hij koppelt ze aan de systemen waar het voor geldt.” Dat zou wel de ideale wereld zijn.</t>
-  </si>
-  <si>
-    <t>Wish for completely connected system</t>
-  </si>
-  <si>
-    <t>Technologie beweegt continu. Dus wil je kort iteratief die aanpassingen doen en mee laten bewegen met de technologie je ook je control framework. Ja, en als je dat in een systeem doet. Ja, dan ben je spekkoper natuurlijk.</t>
-  </si>
-  <si>
-    <t>Continuous control adaptation / continuous risk identification</t>
-  </si>
-  <si>
-    <t>Ja, ja, en dat maar dat je het document er niet eens in hoeft te gooien, maar dat je ze connect met het internet. Dat je hem voedt met technologie platformen, instructies en continu laat itereren op dagelijkse basis, dat je eigenlijk een knopje indrukt. “Ik heb een nieuwe control bedacht en gevonden, omdat er nieuwe technologie is of er gaan controles af."</t>
-  </si>
-  <si>
-    <t>Continuous control creation / Completely connected system</t>
-  </si>
-  <si>
-    <t>Als je dat continu mee laat bewegen door een AI-model, ja dan kan je daar de factor 10 100 misschien wel minder mensen aan doen.</t>
-  </si>
-  <si>
-    <t>Control team reduction</t>
-  </si>
-  <si>
-    <t>Future outlook</t>
-  </si>
-  <si>
-    <t>Het punt dat ik vooral probeer te maken is dat het dus heel erg afhankelijk is van het type control framework en de scope die je daarvoor hebt. Die zijn heel doorslaggevend in hoe responsible je er mee om moet gaan.</t>
-  </si>
-  <si>
-    <t>AI implementation is dependent on type or scope</t>
-  </si>
-  <si>
-    <t>AI implementation / Ethical requirement</t>
-  </si>
-  <si>
     <t>Nou, de eerste check die ik doe is dat ik vraag aan AI om dat te checken.</t>
   </si>
   <si>
@@ -283,30 +100,6 @@
     <t>AI implementation / Participant information</t>
   </si>
   <si>
-    <t>Ja, wij hebben zo een Secure GPT oplossing dus ChatGPT, maar dan veilig. Dat gebruik ik wel, maar voor de rest beperkt.</t>
-  </si>
-  <si>
-    <t>AI in participants organisation</t>
-  </si>
-  <si>
-    <t>Nou, ik gebruik het gewoon om teksten te maken voor proposals of dat soort dingen gewoon hele platte basale taken, vooral richting de commercie om het zo maar te zeggen.</t>
-  </si>
-  <si>
-    <t>Use of AI for basic tasks</t>
-  </si>
-  <si>
-    <t>Nee, ja, we hebben een heel stom beleid binnen ORGANISATIE C. Ze zijn bang dat wij conclusies trekken uit verkeerde informatie, omdat je de bron niet kunt checken met AI, of niet bij alle platformen.</t>
-  </si>
-  <si>
-    <t>AI policy at organisation</t>
-  </si>
-  <si>
-    <t>Current implementation AI / Output validation</t>
-  </si>
-  <si>
-    <t>AI implementation / Participant information / User requirement</t>
-  </si>
-  <si>
     <t>Het belangrijkste knelpunt is natuurlijk dat er een veelheid aan AI tools inmiddels beschikbaar is.</t>
   </si>
   <si>
@@ -317,57 +110,6 @@
   </si>
   <si>
     <t>AI implementation / Technical requirement</t>
-  </si>
-  <si>
-    <t>Maar hoe de configuratie vervolgens in elkaar zit, dat is waar wij continu tegenaan lopen als beleidspartij binnen ORGANISATIE C. Hoe maak je de vertaalslag van controls naar daadwerkelijke instructies in de tooling en in de werkelijkheid?</t>
-  </si>
-  <si>
-    <t>Implementation AI / Capability of AI</t>
-  </si>
-  <si>
-    <t>We hebben ook heel veel beleid binnen ORGANISATIE C en dat is allemaal een documentjes gestopt. Ja, er is niemand die dat leest. Dus wat je aan die wet wilt vragen is, LLM, al je beleidsstukken… Het laten voeden en laten trainen en daar dan vragen over stellen. “Wat moet ik doen? Aan welke eisen moet ik voldoen?” Als ik test, geeft hij gewoon een lijstje met eisen die hangen aan testen.</t>
-  </si>
-  <si>
-    <t>Policy documents as input / Risk identification step</t>
-  </si>
-  <si>
-    <t>Type of input / Implementation AI</t>
-  </si>
-  <si>
-    <t>En ook daar hangt en staat het weer bij de data. Je moet wel die data hebben om dat antwoord te kunnen geven, maar veel van die data hebben we, alleen die is niet vindbaar op dit moment. Dus het vindbaar maken van beleid zou daarbij kunnen helpen. Dus je control framework hoort daarbij, is ook een van je beleidsstukken.</t>
-  </si>
-  <si>
-    <t>AI for risk identification / Policy documents as input / Existing control frameworks as input</t>
-  </si>
-  <si>
-    <t>Implementation AI / Type of input</t>
-  </si>
-  <si>
-    <t>Ja, ik denk eigenlijk toch overal wel een beetje, moet ik heel eerlijk zeggen. In ieder geval in een adviserende rol uiteraard, hè.</t>
-  </si>
-  <si>
-    <t>AI supported steps / AI as advising role</t>
-  </si>
-  <si>
-    <t>AI implementation / User requirement</t>
-  </si>
-  <si>
-    <t>In ieder geval als startpunt. Ik zeg niet dat ik meteen moet copy pasten, klaar, strik erom en niks meer aan doen, maar als startpunt kan het best wel prima helpen.</t>
-  </si>
-  <si>
-    <t>AI for starting point</t>
-  </si>
-  <si>
-    <t>Supportive role of AI</t>
-  </si>
-  <si>
-    <t>Dan kunnen we trainingsprogramma's maken die heel makkelijk te maken zijn met AI. Het gaat ons namelijk heel veel tijd schelen om dingen uit te leggen.</t>
-  </si>
-  <si>
-    <t>Training on control implementation / Implementation of other generative AI types</t>
-  </si>
-  <si>
-    <t>Implementation AI / User training</t>
   </si>
   <si>
     <t>Die risico identificatie gaat nog een stap aan vooraf. En dat zijn natuurlijk je doelstellingen scherp hebben.</t>
@@ -422,15 +164,429 @@
     <t>Time of steps</t>
   </si>
   <si>
+    <t>Je wil niet met elke gratis beschikbare AI tool op internet zomaar bedrijfsspecifieke documenten gaan voeden, want je weet niet wat er met die inhoud gebeurt.</t>
+  </si>
+  <si>
+    <t>Reliability of AI tools</t>
+  </si>
+  <si>
+    <t>Trust in AI</t>
+  </si>
+  <si>
+    <t>Ethical requirement</t>
+  </si>
+  <si>
+    <t>Je kan natuurlijk prima bepaalde documenten anonimiseren, alle gevoeligheden uit te halen</t>
+  </si>
+  <si>
+    <t>Anonymising sensitive documents</t>
+  </si>
+  <si>
+    <t>Anonymising input</t>
+  </si>
+  <si>
+    <t>We zijn er ook wel mee bezig met zo een AI labs in te richten, waarbij we gewoon een stukje sharepoint pakken die gewoon helemaal geanonimiseerd hebben, waarvan we in ieder geval met elkaar vastgesteld hebben dat hier allemaal documenten in instaan en die zijn gewoon goed. Daar zou iedereen bij mogen.</t>
+  </si>
+  <si>
+    <t>Anonymised set of usable documents</t>
+  </si>
+  <si>
+    <t>En het andere is natuurlijk het risico dat we te veel gaan vertrouwen op de output.</t>
+  </si>
+  <si>
+    <t>Too much trust in AI</t>
+  </si>
+  <si>
+    <t>Je zou het natuurlijk aan de AI kunnen vragen van: “gegeven dit control framework, ik wil fraude plegen. Hoe dan?</t>
+  </si>
+  <si>
+    <t>Commiting fraud with AI</t>
+  </si>
+  <si>
+    <t>Abusing AI</t>
+  </si>
+  <si>
+    <t>Het AI model dat we dan gebruiken om een control framework vorm te geven, heeft zicht op de belangrijkste risico's, dat heeft zich op de belangrijkste controles en zou dus ook theorie kunnen adviseren hoe daar misbruik van gemaakt kan worden.</t>
+  </si>
+  <si>
+    <t>Abusing AI’s knowledge on controls</t>
+  </si>
+  <si>
+    <t>AI modellen kunnen ook inprikken op data om uiteindelijk je control framework vorm te geven. En, wij zagen op basis van data dat er in bepaalde postcodegebieden slechter betaald wordt. En dat hangt samen met inkomen. Dat hangt samen met opleidingsniveau en dat hangt ook samen met etnische afkomst in de wijken, waar veel arbeidsmigranten wonen en waar het opleidingsniveau nog niet zo hoog is en waar de inkomens niet zo hoog zijn. Daar zijn de betalingsachterstanden over het algemeen ook hoger. En AI zou een model kunnen bedenken met een afhankelijkheid van de achternaam.</t>
+  </si>
+  <si>
+    <t>Discrimination by AI-models</t>
+  </si>
+  <si>
+    <t>AI discrimination</t>
+  </si>
+  <si>
+    <t>Dat is pas meer aan de hand wanneer je het AI gaat gebruiken op daadwerkelijke data dan wanneer je AI gaat gebruiken om vanuit doelstellingen, wet- en regelgeving, procesdocumentatie, en beleidskaders een control framework vorm te geven.</t>
+  </si>
+  <si>
+    <t>Discrimination by AI-models only when personal data is used</t>
+  </si>
+  <si>
+    <t>En, ik denk ook dat je je ethische normen kader je ethisch kader eigenlijk ook wel weer als input kan gebruiken. Waarbij het AI model daar ook weer rekening mee houdt.</t>
+  </si>
+  <si>
+    <t>Ethical standards framework</t>
+  </si>
+  <si>
+    <t>Type of input / AI discrimination / Abusing AI</t>
+  </si>
+  <si>
+    <t>Ethical requirement / Technical requirement</t>
+  </si>
+  <si>
+    <t>Ik vind dat je AI-tools die je gaat gebruiken in je bedrijfsspecifieke context, dat die gecheckt moeten zijn, dat afspraken met de leveranciers gemaakt zijn, et cetera ja, dus het moet onder bepaalde randvoorwaarden gebeuren.</t>
+  </si>
+  <si>
+    <t>Agreements about AI tools and distributors</t>
+  </si>
+  <si>
+    <t>Choice on AI tool / Policy about AI use</t>
+  </si>
+  <si>
+    <t>Ethical requirement / User requirement</t>
+  </si>
+  <si>
+    <t>Je hebt natuurlijk gewoon je eigen verantwoordelijkheid en aansprakelijkheid op dat vlak.</t>
+  </si>
+  <si>
+    <t>Responsibility of AI use</t>
+  </si>
+  <si>
+    <t>Policy on AI use</t>
+  </si>
+  <si>
+    <t>Ook al heeft de AI output het verkeerd gedaan. Dan aanvaard ik daarvan de consequenties.</t>
+  </si>
+  <si>
+    <t>Accountability on AI use</t>
+  </si>
+  <si>
+    <t>Policy on AI use/ Trust in AI</t>
+  </si>
+  <si>
+    <t>Ja, ik vind dat ik er redelijk goed bekend mee ben.</t>
+  </si>
+  <si>
+    <t>Knowledge on AI</t>
+  </si>
+  <si>
+    <t>Experience AI</t>
+  </si>
+  <si>
+    <t>Participant information</t>
+  </si>
+  <si>
+    <t>Ik heb diverse AI tools, we hebben onder de meest bekende natuurlijk ChatGPT, mee geëxperimenteerd.</t>
+  </si>
+  <si>
+    <t>Experimentation AI</t>
+  </si>
+  <si>
+    <t>ik denk als je daar je daar doelstellingen in stopt, hè? Dat kan bijvoorbeeld zijn dat je daar gewoon een strategiedocument opstuurt.</t>
+  </si>
+  <si>
+    <t>Goals and strategy documents as input</t>
+  </si>
+  <si>
+    <t>Type of input</t>
+  </si>
+  <si>
+    <t>Technical requirement</t>
+  </si>
+  <si>
+    <t>Als je een normenkader erin gooit, een ISO normen kader, erin plakt</t>
+  </si>
+  <si>
+    <t>Framework as input</t>
+  </si>
+  <si>
+    <t>Ik denk ook als je er een procesbeschrijving in stopt</t>
+  </si>
+  <si>
+    <t>Process documentation as input</t>
+  </si>
+  <si>
+    <t>Wanneer het geen standaard proces is, maar je hebt wel goed het proces gedocumenteerd. Denk ik dat dat redelijk spot on is.</t>
+  </si>
+  <si>
+    <t>Process documentation as input / process documentation must be good</t>
+  </si>
+  <si>
+    <t>Type of input / Quality input</t>
+  </si>
+  <si>
+    <t>Naast alles wat wat er de afgelopen jaren in dat model is gepropt vanuit internet, heb ik hier ook bij nog de organisatie specifieke documentatie, je hebt hier ook toegang tot het intranet, en by the way, ik ga jou heel gericht voeden met strategiedocumenten, jaarplannen, meerjarenplannen, budgetten, beleidsstukken, standaarden en ik wil dat je dat ook meeneemt in je risicobeoordeling</t>
+  </si>
+  <si>
+    <t>Many types of documents as input</t>
+  </si>
+  <si>
+    <t>Hij ligt aan het doel van het control framework. Als iets compliance doelstelling heeft, dan moet je natuurlijk de wet en regelgeving of de normen kaders als input hebben.</t>
+  </si>
+  <si>
+    <t>Type of input depends on context</t>
+  </si>
+  <si>
+    <t>Als het control framework er is om te zorgen dat ik mijn strategische of mijn tactische of mijn operationele doelstellingen haal, dan kom je meer op de inputdocumenten als je strategiedocumenten, je meerjarenplan, je jaarplannen, je kwartaaldoelstellingen.</t>
+  </si>
+  <si>
+    <t>Dat de organisatiecontext mee wordt gegeven en eigenlijk al die input documenten dat het model daarop is ingeprikt.</t>
+  </si>
+  <si>
+    <t>Organisational context as input / specialised AI-model</t>
+  </si>
+  <si>
+    <t>Type of input / Choice on AI tool</t>
+  </si>
+  <si>
+    <t>De output moet volledig zijn. Je wilt zeker weten dat dat enorme kader volledig is afgedekt, en je wilt zeker weten dat met die set aan controls een bepaalde doelstelling wordt gehaald.</t>
+  </si>
+  <si>
+    <t>Completeness of output</t>
+  </si>
+  <si>
+    <t>Output AI</t>
+  </si>
+  <si>
+    <t>Dus je wilt bij het opstellen van je control framework wel een aantal parameters meegeven rondom risico en risicobereidheid.</t>
+  </si>
+  <si>
+    <t>Control framework parameters as input</t>
+  </si>
+  <si>
+    <t>Dat het rekening houdt met context, risicobereidheid, het type organisatie, de mate detail die ik als gebruiker erin wil hebben.</t>
+  </si>
+  <si>
+    <t>Types of input</t>
+  </si>
+  <si>
+    <t>Ik denk dat je met een standaard koppeling met het internet of een confluence site of een aantal van dat soort dingen, al noem je dat samenwerk tools binnen organisaties, dat je daarmee die tool met context kan voeden.</t>
+  </si>
+  <si>
+    <t>Connection to public relevant documents for input</t>
+  </si>
+  <si>
+    <t>En er is ook de mate waarin je door je organisatie wordt toegestaan om dat te mogen doen. Ik denk dat dat heel erg de bruikbaarheid van AI, in het definiëren van je control framework, bepaalt.</t>
+  </si>
+  <si>
+    <t>Permission to use types of document as input</t>
+  </si>
+  <si>
+    <t>Type of input / policy about AI use</t>
+  </si>
+  <si>
+    <t>Technical requirement / User requirement</t>
+  </si>
+  <si>
+    <t>Maar vanuit het gebruikersperspectief en gebruikers gemak, dan moet de AI snel zijn, kwalitatief goede antwoorden geven, en er moet weinig interactie nodig zijn.</t>
+  </si>
+  <si>
+    <t>Speed, quality and interaction with AI-system</t>
+  </si>
+  <si>
+    <t>Choice on AI tool / interaction with AI</t>
+  </si>
+  <si>
+    <t>En dan denk ik niet, zeg maar dat de ernst beoordeling of de risicobeoordeling, dat hij zo goed is als dat we dat met verschillende stakeholders zouden kunnen doen.</t>
+  </si>
+  <si>
+    <t>AI’s risk assessment capacity</t>
+  </si>
+  <si>
+    <t>User requirement</t>
+  </si>
+  <si>
+    <t>dan aan AI vragen van: “goh hè? Kan je dat ook nog eens een keer onderbouwen”?</t>
+  </si>
+  <si>
+    <t>Have AI elaborate</t>
+  </si>
+  <si>
+    <t>Interaction with AI</t>
+  </si>
+  <si>
+    <t>Ja absoluut en ook inderdaad vragen aan AI om beheersmaatregelen te definiëren die een risico afdekken.</t>
+  </si>
+  <si>
+    <t>En dan lees ik het zelf nog eens een keer door. Dan heb ik bepaalde twijfels en dan moet ik feedback geven.</t>
+  </si>
+  <si>
+    <t>More prompting</t>
+  </si>
+  <si>
+    <t>Ja, nou ja, dat denk ik wel dat je inderdaad enige ervaring moet opbouwen met dat soort modellen om te weten van: "Welke interactie moet ik hebben, hoe moet ik prompten?”</t>
+  </si>
+  <si>
+    <t>Good prompting</t>
+  </si>
+  <si>
+    <t>Nou ja, vertrouwen is prima mits je maar gevalideerd</t>
+  </si>
+  <si>
+    <t>Output validation</t>
+  </si>
+  <si>
+    <t>We hebben gelukkig voldoende oude rotten in het vak rondlopen die het al 20 jaar gedaan hebben. He, die dan ja, de output op waarde kunnen schatten.</t>
+  </si>
+  <si>
+    <t>Evaluating output</t>
+  </si>
+  <si>
+    <t>Ik zit al wel 20 jaar verder te denken. Hé, zijn er dan nog steeds mensen die dan de output op waarde kunnen schatten?</t>
+  </si>
+  <si>
+    <t>Doubts on future experience</t>
+  </si>
+  <si>
+    <t>Future policy / Output validation</t>
+  </si>
+  <si>
+    <t>Ook probeer ik weleens dezelfde prompts in die verschillende modellen te zetten en dan te kijken wat het verschil is qua output. Dan ga je hele gerichte vragen stellen, en dan kunnen die antwoorden ook wel enorm uiteenlopen.</t>
+  </si>
+  <si>
+    <t>Different outputs from different AI-models</t>
+  </si>
+  <si>
+    <t>En ik als mens heb nog steeds voldoende vertrouwen in mezelf dat ik het beste antwoord uit de verschillende antwoorden kan destilleren.</t>
+  </si>
+  <si>
+    <t>Output validation by human</t>
+  </si>
+  <si>
+    <t>Dat de gebruiker in dat geval verwacht dat die AI die SAP tool gewoon heel goed kent, versus een andere organisatie waarbij en nauwelijks standaard pakketten en applicaties zijn en dus die verwachting helemaal niet heeft.</t>
+  </si>
+  <si>
+    <t>Expectations about output</t>
+  </si>
+  <si>
+    <t>Ik denk dat je best wel met een aardige voorzet komt, maar dan moet je heel goed gaan prompten</t>
+  </si>
+  <si>
+    <t>AI as starting point / good prompting</t>
+  </si>
+  <si>
+    <t>Supportive role AI / interaction with AI</t>
+  </si>
+  <si>
+    <t>User requirement / AI implementation</t>
+  </si>
+  <si>
+    <t>Bij identificatie kun je natuurlijk prima een AI systeem vragen van nou: “We hebben dit proces op basis van wat jij weet over dat proces wat we erin stoppen, waar zie jij risico's? Dus waar heb jij het zien misgaan in zo een proces?” Dat kan je echt wel helpen.</t>
+  </si>
+  <si>
+    <t>AI in risk identification</t>
+  </si>
+  <si>
+    <t>Nou, hetzelfde geldt voor die kans maal impact. "Hoe groot acht jij nou, beste AI systeem, op basis van dit soortgelijke risico's die je hebt gezien, dat het ook daadwerkelijk gebeurt en wat is dan nou impact?”</t>
+  </si>
+  <si>
+    <t>AI in risk severity assessment</t>
+  </si>
+  <si>
+    <t>Oké, prioriteit beoordelen denk ik, dat is denk ik wel iets minder, maar dat is feitelijk gewoon een resultaat van je ernst beoordeling.</t>
+  </si>
+  <si>
+    <t>Less AI in risk prioritisation</t>
+  </si>
+  <si>
+    <t>Ja, weet je, als ik denk aan generatieve AI waarbij heel het internet in een AI systeem is gepropt, ja, dan kun je natuurlijk prima vragen: "Oké, dit hebben we als risico. Wij zien het als een hoog risico, want dit en dit en dit. Welke maatregelen kan ik treffen om te zorgen dat het risico beheerst wordt?” Nou, dan kun je je daar echt wel over laten adviseren.</t>
+  </si>
+  <si>
+    <t>AI in risk response / Generative AI implementation</t>
+  </si>
+  <si>
+    <t>Kijk, het goed op papier krijgen van een control is het ook wel best wel uitdagend voor veel mensen, niet in de laatste plaats ook voor mij, dus daar zou je natuurlijk wel over kunnen laten adviseren hoe je, als je het risico weet, als je de maatregel weet, om dat zo goed mogelijk op te schrijven.</t>
+  </si>
+  <si>
+    <t>AI in control formulation / AI as advisor</t>
+  </si>
+  <si>
+    <t>Implementation AI / Supportive role AI</t>
+  </si>
+  <si>
+    <t>Nou ja, het is wel een techniek die hiervoor heel goed geschikt is. Als jij een bepaalde risico omschrijving geeft een bepaalde procesbeschrijving, ja, dan weet zo'n systeem gewoon van zo'n systeem op basis van wat die geleerd heeft.</t>
+  </si>
+  <si>
+    <t>Generative AI for risk severity assessment</t>
+  </si>
+  <si>
+    <t>Maar ik denk wel inderdaad op het moment dat je controls wil genereren. Nou zegt het al een beetje, genereren, generatief dan kun je LLM’s, dus generatieve AI, daar echt wel goed voor gebruiken ja.</t>
+  </si>
+  <si>
+    <t>Generative AI for control creation</t>
+  </si>
+  <si>
+    <t>Omdat dat toch een vrij kwalitatieve exercitie is waarmee je bezig bent, hè? Dus je bent toch aan het nadenken over risico's</t>
+  </si>
+  <si>
+    <t>Generative AI for qualitative tasks</t>
+  </si>
+  <si>
+    <t>Ik heb best wel veel uitdagingen gehad met goede control frameworks maken om het zo maar te zeggen. Het is best wel een vak. Ja, en ik zie echt wel dat AI erbij en een hele nuttige rol kan spelen, dus het is wel een leuk onderzoek om op die manier naar te kijken.</t>
+  </si>
+  <si>
+    <t>Usefulness of AI in control framework creation</t>
+  </si>
+  <si>
+    <t>Implementation AI / Subject relevance</t>
+  </si>
+  <si>
+    <t>Nou exact, dat je gewoon wat documenten van een proces uploadt, en dat er dan automatisch een control framework uitrolt. Ik zie het wel gebeuren hoor, in de toekomst moet ik heel eerlijk zeggen. Natuurlijk zit er dan nog een menselijk vlak in om dat weer te beoordelen.</t>
+  </si>
+  <si>
+    <t>AI implemented in GRC tool / human in the lead</t>
+  </si>
+  <si>
+    <t>Het punt dat ik vooral probeer te maken is dat het dus heel erg afhankelijk is van het type control framework en de scope die je daarvoor hebt. Die zijn heel doorslaggevend in hoe responsible je er mee om moet gaan.</t>
+  </si>
+  <si>
+    <t>AI implementation is dependent on type or scope</t>
+  </si>
+  <si>
+    <t>AI implementation / Ethical requirement</t>
+  </si>
+  <si>
+    <t>Ja, wij hebben zo een Secure GPT oplossing dus ChatGPT, maar dan veilig. Dat gebruik ik wel, maar voor de rest beperkt.</t>
+  </si>
+  <si>
+    <t>AI in participants organisation</t>
+  </si>
+  <si>
+    <t>Nou, ik gebruik het gewoon om teksten te maken voor proposals of dat soort dingen gewoon hele platte basale taken, vooral richting de commercie om het zo maar te zeggen.</t>
+  </si>
+  <si>
+    <t>Use of AI for basic tasks</t>
+  </si>
+  <si>
+    <t>Ja, ik denk eigenlijk toch overal wel een beetje, moet ik heel eerlijk zeggen. In ieder geval in een adviserende rol uiteraard, hè.</t>
+  </si>
+  <si>
+    <t>AI supported steps / AI as advising role</t>
+  </si>
+  <si>
+    <t>AI implementation / User requirement</t>
+  </si>
+  <si>
+    <t>In ieder geval als startpunt. Ik zeg niet dat ik meteen moet copy pasten, klaar, strik erom en niks meer aan doen, maar als startpunt kan het best wel prima helpen.</t>
+  </si>
+  <si>
+    <t>AI for starting point</t>
+  </si>
+  <si>
+    <t>Supportive role of AI</t>
+  </si>
+  <si>
     <t>Dus als je echt kijkt naar de standaard AO/IC aanpak, dan zit er voor die risico identificatie eigenlijk nog een soort procesanalyse, dus: “Waar hebben we het nou precies over? Wat zijn de stapjes in zo'n proces om daarin dan te kijken?</t>
   </si>
   <si>
     <t>Process analysis as a first step of control process</t>
   </si>
   <si>
-    <t>Expand step in process</t>
-  </si>
-  <si>
     <t>Maar daar zit ook altijd, en dat mis ik dan nog misschien een beetje, en dat zit wel in die response hoor, “Ja, wat is nou het restrisico wat je dan overhoudt?"</t>
   </si>
   <si>
@@ -455,6 +611,294 @@
     <t>Hetzelfde geldt eigenlijk voor die maatregelen. Je moet een bepaalde creativiteit hebben om de juiste maatregelen te bedenken die passend zijn op hetgeen wat je als risico hebt geïdentificeerd. Dat vergt ook wel een wat breder denkveld als dat om dat goed te kunnen doen.</t>
   </si>
   <si>
+    <t>Als je de informatie erin stopt die je er ook in mag stoppen, vanuit wet- en regelgeving. Het kan ook zo zijn dat er bepaalde redenen zijn dat dat niet mag vanuit privacywetgeving of andere wetgeving, en dan kun je het er natuurlijk ook niet in stoppen.</t>
+  </si>
+  <si>
+    <t>Misuse of trusted data</t>
+  </si>
+  <si>
+    <t>Misuse AI / Ethical problems of AI</t>
+  </si>
+  <si>
+    <t>Als het over mensen gaat, bijvoorbeeld in je HR proces, dan kan ik me wel voorstellen dat er potentiële ethische risico's ontstaan.</t>
+  </si>
+  <si>
+    <t>Ethical problems in controls about humans</t>
+  </si>
+  <si>
+    <t>Ethical problems of AI / Misuse AI</t>
+  </si>
+  <si>
+    <t>Terwijl als het een control framework is, wat de risico's van een bepaald IT systeem moet beheersen, wat helemaal niet over mensen gaat, dan zijn er iets minder implicaties.</t>
+  </si>
+  <si>
+    <t>Ethical problems in IT controls</t>
+  </si>
+  <si>
+    <t>Ethical problems of AI</t>
+  </si>
+  <si>
+    <t>Als het control framework controls bevat die over mensen, dan is er natuurlijk de potentiële impact als zo'n controle niet klopt veel groter, en vraagt dan ook eigenlijk om veel meer controle om dat tot stand te brengen</t>
+  </si>
+  <si>
+    <t>Impact of controls about humans</t>
+  </si>
+  <si>
+    <t>Ethical implications of AI / policy on AI use</t>
+  </si>
+  <si>
+    <t>Ik ben ooit begonnen als IT auditor. Dus echt het beoordelen van IT systemen aan de hand van risico en controle matrix onder andere</t>
+  </si>
+  <si>
+    <t>IT audit experience / control experience</t>
+  </si>
+  <si>
+    <t>Work experience</t>
+  </si>
+  <si>
+    <t>maar eigenlijk sinds een aantal jaar heb ik mijn focus wat verlegd naar risicobeheersing rondom AI</t>
+  </si>
+  <si>
+    <t>Work experience with AI</t>
+  </si>
+  <si>
+    <t>En met dat team adviseren we bedrijven over de verantwoorde inzet van AI</t>
+  </si>
+  <si>
+    <t>Consulting on responsible AI</t>
+  </si>
+  <si>
+    <t>Work experience / Experience AI</t>
+  </si>
+  <si>
+    <t>Je kunt er een variabele meegeven en het restrisico willen we zo laag mogelijk hebben, dus we willen echt helemaal dichttimmeren, dus we willen een kopie van preventief en detective bijvoorbeeld.</t>
+  </si>
+  <si>
+    <t>Variable as input for risk response</t>
+  </si>
+  <si>
+    <t>Je hebt documentatie die je nodig hebt om die skill van een control framework te maken aan te leren, en je hebt documentatie nodig van het object waarvan je zo een control framework wil gaan maken. Dus dat zijn natuurlijk verschillende niveaus, maar voor beide heb je informatie nodig.</t>
+  </si>
+  <si>
+    <t>Two types of documentation as input</t>
+  </si>
+  <si>
+    <t>Ja dat kan natuurlijk van alles zijn, je datakwaliteit van je input, data kan onvoldoende beschikbaar zijn</t>
+  </si>
+  <si>
+    <t>Dataquality / data availability</t>
+  </si>
+  <si>
+    <t>Quality of input</t>
+  </si>
+  <si>
+    <t>Zo'n systeem kan natuurlijk ook hallucineren, zoals ze dat zo mooi noemen, hè? Als je het over generatieve AI hebt, dus dat zit juist in het feit dat hij niet echt jouw vraag begrijpt, maar dat hij gewoon berekent: “Wat is het meest logische antwoord op basis van wat het kind het verleden gelezen heb?"</t>
+  </si>
+  <si>
+    <t>AI hallucination</t>
+  </si>
+  <si>
+    <t>Quality of output</t>
+  </si>
+  <si>
+    <t>Ik denk dat je in de basis dat je geen enorme risico's loopt. Nou moet ik eerlijk zeggen als je vanuit technisch perspectief goed weet hoe zo'n proces werkt dat je een heel eind moet kunnen komen.</t>
+  </si>
+  <si>
+    <t>Few technical problems</t>
+  </si>
+  <si>
+    <t>Ja, dan het wel lijkt alsof het klopt. Ja, dat is dan een potentieel risico dat je dus je risico's die je hebt geïdentificeerd of tot maatregelen hebt omgezet niet echt passen.</t>
+  </si>
+  <si>
+    <t>Of dat je te veel gelooft in het systeem en je gebruikt een generatieve AI systeem om te bedenken, als je een procesbeschrijving geeft. Waar zitten hier de potentiële risico's en je kijkt daar zelf niet kritisch naar, en het is door hallucinatie beïnvloed op een negatieve manier, dan heb je gewoon een minder effectief raamwerk.</t>
+  </si>
+  <si>
+    <t>AI hallucination / too much trust in output</t>
+  </si>
+  <si>
+    <t>Quality of output / Trust in AI / Mistake implications</t>
+  </si>
+  <si>
+    <t>Dus als jij een control framework wil maken en je gaat daar AI gebruiken, dan moet je natuurlijk wel kunnen beoordelen of dit nou een goede maatregel is bijvoorbeeld.</t>
+  </si>
+  <si>
+    <t>Dus het domein waar die zo een framework voor gaat maken, dus eigenlijk gaat het erom dat zo'n persoon goed de uitkomsten van zo'n AI systeem weet te beoordelen. Dus dat vraagt van een inhoudelijke kennis, vraagt kennis om de limitaties van zo'n systeem voldoende te weten.</t>
+  </si>
+  <si>
+    <t>User knowledge on AI systems / validation of output</t>
+  </si>
+  <si>
+    <t>Output validation / interaction AI</t>
+  </si>
+  <si>
+    <t>Ja, dat komt weer op dezelfde risico's die ik net noemde. Weet je wel, je krijgt gewoon een minder goed beheersingsraamwerk, waardoor je potentieel bepaalde maatregelen niet treft, die je eigenlijk wel moet treffen.</t>
+  </si>
+  <si>
+    <t>Lack of experience or training</t>
+  </si>
+  <si>
+    <t>Maar ook, en dat gaat wel ver, als je alleen maar AI systemen gaat gebruiken, dat je dan zelf niet goed meer nadenkt. Dan raak je zelf de competentie langzaam kwijt. Maar dat is meer een indirect gevolg, om het zo te zeggen.</t>
+  </si>
+  <si>
+    <t>Losing control skills</t>
+  </si>
+  <si>
+    <t>Output validation / future outlook</t>
+  </si>
+  <si>
+    <t>Het zou natuurlijk kunnen. Ja tuurlijk, ja, dat zou wel echt kunnen. Ja, hoe snel dat gaat weet ik ook niet, hè? Maar een beetje hetzelfde als met het navigatiesysteem. Vroeger reed Iedereen zonder navigatiesysteem, zocht het even op, en reden er gewoon naartoe en dan kwam het wel goed, maar nu rijdt iedereen met navigatiesysteem en vergeten ze gewoon de route.</t>
+  </si>
+  <si>
+    <t>Losing skills over time</t>
+  </si>
+  <si>
+    <t>Ik denk in dit geval dat vooral de kennis van degene die zo'n systeem gebruikt, dat dat doorslaggevend is. Als dat op orde is om het zo maar te zeggen, dan denk ik dat die combi van AI en het maken van beheersingsraamwerken best wel een krachtige zou kunnen zijn, juist omdat je in die fase van het identificeren van risico's en het bedenken van passende maatregelen wat creativiteit en denkwerk kan gebruiken.</t>
+  </si>
+  <si>
+    <t>User knowledge / AI for risk identification / AI for risk response</t>
+  </si>
+  <si>
+    <t>Interaction AI / Implementation AI</t>
+  </si>
+  <si>
+    <t>Het vraagt ook kennis over de input data die erin is, weet je wel: “ben je ervan overtuigd dat de kwaliteit voldoende is? Ja of nee?”</t>
+  </si>
+  <si>
+    <t>User knowledge on input data / validation of input</t>
+  </si>
+  <si>
+    <t>User requirement / Technical requirement</t>
+  </si>
+  <si>
+    <t>Ook daar zitten heel veel maatregelen in, dus dat beweegt ook continu. Die technologie beweegt snel en daarmee bewegen ook je beheersingsmaatregelen mee.</t>
+  </si>
+  <si>
+    <t>Continuity of potential risks</t>
+  </si>
+  <si>
+    <t>Implementation AI / Continuous control creation</t>
+  </si>
+  <si>
+    <t>Ik had een heel raamwerk opgezet, voor CSD maatregelen en ik was daar een half jaar mee bezig geweest en vervolgens vraag ik aan ChatGPT: “Geef mij eens de…” Dat was toen net in opkomst, dat net op de markt, dus ik probeerde wat en vervolgens krijg ik gewoon exact het lijstje waar ik een half jaar aan gewerkt heb.</t>
+  </si>
+  <si>
+    <t>AI for risk control creation</t>
+  </si>
+  <si>
+    <t>AI experience / Implementation AI</t>
+  </si>
+  <si>
+    <t>Zover is ChatGPT nog niet, dat hij hele onderliggende standaarden van platformen precies kent, maar daar zou je wel, door het AI model te voeden met best practices, maar ook de standaarden vanuit de platformen, die link proberen te leggen.</t>
+  </si>
+  <si>
+    <t>AI capability for general risk identification</t>
+  </si>
+  <si>
+    <t>Dus dat eerste niveau, dat haalt AI nog wel op dit moment. Die kan gewoon prima zeggen: “Ja, je moet je verlies op data, maar dan moet je een backup maatregel treffen.” Dat dat snapt hij wel.</t>
+  </si>
+  <si>
+    <t>AI for risk identification / AI for risk severity assessment</t>
+  </si>
+  <si>
+    <t>Die is voor ons heel moeilijk te maken omdat wij geen techneuten zijn, maar wel verstand hebben van de control objectives, maar een AI zou wellicht wel die taal slag kunnen maken, omdat die alles kan leren van het platform door hem te trainen op het platform. Je kunt ze alles leren van die control objectives en die kan wellicht wel makkelijk die link leggen tussen de werkelijkheid en de best practices.</t>
+  </si>
+  <si>
+    <t>AI for control formulation</t>
+  </si>
+  <si>
+    <t>Zeker als je gaat kijken naar een implementatie, hè? Dus heb je imaging, maar ook text-to-speech en text-to-video. Die zouden heel erg kunnen helpen bij de implementatie van control frameworks.</t>
+  </si>
+  <si>
+    <t>Implementation of other generative AI types / Implementation of control frameworks</t>
+  </si>
+  <si>
+    <t>Dus we hebben allemaal control objectives, en daar zetten we toetsen bij uit, bij teams, om te checken of zij voldoen aan die controls. Je zou wellicht ook die data kunnen laten trainen door de AI. Dus dat is eigenlijk een soort monitoring tool AI</t>
+  </si>
+  <si>
+    <t>Process monitoring by AI / Continuous control monitoring</t>
+  </si>
+  <si>
+    <t>Ja, eigenlijk een interne AI slimme auditor, die kijkt waar het allemaal mis gaat, en waar het goed gaat op basis daarvan een soort adviezen geeft.</t>
+  </si>
+  <si>
+    <t>AI supported continuous auditing</t>
+  </si>
+  <si>
+    <t>Dus hoe zou je dat integreren, en met welke tools? Doe je dat in een chatbot of in een webbrowser? Ja, dat lijkt me wel cruciaal voor de gebruikers. En hoe integreer je dat dan weer met je control framework tool?</t>
+  </si>
+  <si>
+    <t>Choice on type of AI integration</t>
+  </si>
+  <si>
+    <t>Het zou ideaal zijn als dat gewoon een op een is. “Dit zijn de controls. Hij maakt ze aan. Hij koppelt ze aan de systemen waar het voor geldt.” Dat zou wel de ideale wereld zijn.</t>
+  </si>
+  <si>
+    <t>Wish for completely connected system</t>
+  </si>
+  <si>
+    <t>Technologie beweegt continu. Dus wil je kort iteratief die aanpassingen doen en mee laten bewegen met de technologie je ook je control framework. Ja, en als je dat in een systeem doet. Ja, dan ben je spekkoper natuurlijk.</t>
+  </si>
+  <si>
+    <t>Continuous control adaptation / continuous risk identification</t>
+  </si>
+  <si>
+    <t>Ja, ja, en dat maar dat je het document er niet eens in hoeft te gooien, maar dat je ze connect met het internet. Dat je hem voedt met technologie platformen, instructies en continu laat itereren op dagelijkse basis, dat je eigenlijk een knopje indrukt. “Ik heb een nieuwe control bedacht en gevonden, omdat er nieuwe technologie is of er gaan controles af."</t>
+  </si>
+  <si>
+    <t>Continuous control creation / Completely connected system</t>
+  </si>
+  <si>
+    <t>Als je dat continu mee laat bewegen door een AI-model, ja dan kan je daar de factor 10 100 misschien wel minder mensen aan doen.</t>
+  </si>
+  <si>
+    <t>Control team reduction</t>
+  </si>
+  <si>
+    <t>Future outlook</t>
+  </si>
+  <si>
+    <t>Nee, ja, we hebben een heel stom beleid binnen ORGANISATIE C. Ze zijn bang dat wij conclusies trekken uit verkeerde informatie, omdat je de bron niet kunt checken met AI, of niet bij alle platformen.</t>
+  </si>
+  <si>
+    <t>AI policy at organisation</t>
+  </si>
+  <si>
+    <t>Current implementation AI / Output validation</t>
+  </si>
+  <si>
+    <t>AI implementation / Participant information / User requirement</t>
+  </si>
+  <si>
+    <t>Maar hoe de configuratie vervolgens in elkaar zit, dat is waar wij continu tegenaan lopen als beleidspartij binnen ORGANISATIE C. Hoe maak je de vertaalslag van controls naar daadwerkelijke instructies in de tooling en in de werkelijkheid?</t>
+  </si>
+  <si>
+    <t>We hebben ook heel veel beleid binnen ORGANISATIE C en dat is allemaal een documentjes gestopt. Ja, er is niemand die dat leest. Dus wat je aan die wet wilt vragen is, LLM, al je beleidsstukken… Het laten voeden en laten trainen en daar dan vragen over stellen. “Wat moet ik doen? Aan welke eisen moet ik voldoen?” Als ik test, geeft hij gewoon een lijstje met eisen die hangen aan testen.</t>
+  </si>
+  <si>
+    <t>Policy documents as input / Risk identification step</t>
+  </si>
+  <si>
+    <t>Type of input / Implementation AI</t>
+  </si>
+  <si>
+    <t>En ook daar hangt en staat het weer bij de data. Je moet wel die data hebben om dat antwoord te kunnen geven, maar veel van die data hebben we, alleen die is niet vindbaar op dit moment. Dus het vindbaar maken van beleid zou daarbij kunnen helpen. Dus je control framework hoort daarbij, is ook een van je beleidsstukken.</t>
+  </si>
+  <si>
+    <t>AI for risk identification / Policy documents as input / Existing control frameworks as input</t>
+  </si>
+  <si>
+    <t>Implementation AI / Type of input</t>
+  </si>
+  <si>
+    <t>Dan kunnen we trainingsprogramma's maken die heel makkelijk te maken zijn met AI. Het gaat ons namelijk heel veel tijd schelen om dingen uit te leggen.</t>
+  </si>
+  <si>
+    <t>Training on control implementation / Implementation of other generative AI types</t>
+  </si>
+  <si>
+    <t>Implementation AI / User training</t>
+  </si>
+  <si>
     <t>Ja, zeker als je naar theorie kijkt, wel. Alleen in de praktijk zie je dat er heel veel best practices op de markt zijn waar je, zeker voor IT, informatie uit kunt halen, zoals COBIT.</t>
   </si>
   <si>
@@ -497,111 +941,12 @@
     <t>Ja, dus de opzet is vrij makkelijk. Dus wat ik net ook al een beetje zei. Het is veel hergebruik van bestaande dingen. Je hebt binnen een dag een lijstje met je blaadje controls, je controleraamwerk. Maar vervolgens de vertaling naar de praktijk. Dat is het lastigste. En afstemming met je stakeholders. Daar gaat gewoon de meeste tijd in zitten.</t>
   </si>
   <si>
-    <t>Intensivity step / Existing frameworks as input</t>
+    <t>Intensivity step / Type of input</t>
   </si>
   <si>
     <t>Control process / Technical requirement</t>
   </si>
   <si>
-    <t>Je wil niet met elke gratis beschikbare AI tool op internet zomaar bedrijfsspecifieke documenten gaan voeden, want je weet niet wat er met die inhoud gebeurt.</t>
-  </si>
-  <si>
-    <t>Reliability of AI tools</t>
-  </si>
-  <si>
-    <t>Trust in AI</t>
-  </si>
-  <si>
-    <t>Ethical requirement</t>
-  </si>
-  <si>
-    <t>Je kan natuurlijk prima bepaalde documenten anonimiseren, alle gevoeligheden uit te halen</t>
-  </si>
-  <si>
-    <t>Anonymising sensitive documents</t>
-  </si>
-  <si>
-    <t>Anonymising input</t>
-  </si>
-  <si>
-    <t>We zijn er ook wel mee bezig met zo een AI labs in te richten, waarbij we gewoon een stukje sharepoint pakken die gewoon helemaal geanonimiseerd hebben, waarvan we in ieder geval met elkaar vastgesteld hebben dat hier allemaal documenten in instaan en die zijn gewoon goed. Daar zou iedereen bij mogen.</t>
-  </si>
-  <si>
-    <t>Anonymised set of usable documents</t>
-  </si>
-  <si>
-    <t>En het andere is natuurlijk het risico dat we te veel gaan vertrouwen op de output.</t>
-  </si>
-  <si>
-    <t>Too much trust in AI</t>
-  </si>
-  <si>
-    <t>Je zou het natuurlijk aan de AI kunnen vragen van: “gegeven dit control framework, ik wil fraude plegen. Hoe dan?</t>
-  </si>
-  <si>
-    <t>Commiting fraud with AI</t>
-  </si>
-  <si>
-    <t>Abusing AI</t>
-  </si>
-  <si>
-    <t>Het AI model dat we dan gebruiken om een control framework vorm te geven, heeft zicht op de belangrijkste risico's, dat heeft zich op de belangrijkste controles en zou dus ook theorie kunnen adviseren hoe daar misbruik van gemaakt kan worden.</t>
-  </si>
-  <si>
-    <t>Abusing AI’s knowledge on controls</t>
-  </si>
-  <si>
-    <t>AI modellen kunnen ook inprikken op data om uiteindelijk je control framework vorm te geven. En, wij zagen op basis van data dat er in bepaalde postcodegebieden slechter betaald wordt. En dat hangt samen met inkomen. Dat hangt samen met opleidingsniveau en dat hangt ook samen met etnische afkomst in de wijken, waar veel arbeidsmigranten wonen en waar het opleidingsniveau nog niet zo hoog is en waar de inkomens niet zo hoog zijn. Daar zijn de betalingsachterstanden over het algemeen ook hoger. En AI zou een model kunnen bedenken met een afhankelijkheid van de achternaam.</t>
-  </si>
-  <si>
-    <t>Discrimination by AI-models</t>
-  </si>
-  <si>
-    <t>AI discrimination</t>
-  </si>
-  <si>
-    <t>Dat is pas meer aan de hand wanneer je het AI gaat gebruiken op daadwerkelijke data dan wanneer je AI gaat gebruiken om vanuit doelstellingen, wet- en regelgeving, procesdocumentatie, en beleidskaders een control framework vorm te geven.</t>
-  </si>
-  <si>
-    <t>Discrimination by AI-models only when personal data is used</t>
-  </si>
-  <si>
-    <t>Als je de informatie erin stopt die je er ook in mag stoppen, vanuit wet- en regelgeving. Het kan ook zo zijn dat er bepaalde redenen zijn dat dat niet mag vanuit privacywetgeving of andere wetgeving, en dan kun je het er natuurlijk ook niet in stoppen.</t>
-  </si>
-  <si>
-    <t>Misuse of trusted data</t>
-  </si>
-  <si>
-    <t>Misuse AI / Ethical problems of AI</t>
-  </si>
-  <si>
-    <t>Als het over mensen gaat, bijvoorbeeld in je HR proces, dan kan ik me wel voorstellen dat er potentiële ethische risico's ontstaan.</t>
-  </si>
-  <si>
-    <t>Ethical problems in controls about humans</t>
-  </si>
-  <si>
-    <t>Ethical problems of AI / Misuse AI</t>
-  </si>
-  <si>
-    <t>Terwijl als het een control framework is, wat de risico's van een bepaald IT systeem moet beheersen, wat helemaal niet over mensen gaat, dan zijn er iets minder implicaties.</t>
-  </si>
-  <si>
-    <t>Ethical problems in IT controls</t>
-  </si>
-  <si>
-    <t>Ethical problems of AI</t>
-  </si>
-  <si>
-    <t>Als het control framework controls bevat die over mensen, dan is er natuurlijk de potentiële impact als zo'n controle niet klopt veel groter, en vraagt dan ook eigenlijk om veel meer controle om dat tot stand te brengen</t>
-  </si>
-  <si>
-    <t>Impact of controls about humans</t>
-  </si>
-  <si>
-    <t>Ethical implications of AI / Use rules</t>
-  </si>
-  <si>
     <t>Ik denk dat er weinig privacygevoelige informatie in ons beleidsstuk staat. Het is wel gevoelige informatie natuurlijk, want het is beleid dat je toepast, dus in die zin wil je de informatie bij je houden.</t>
   </si>
   <si>
@@ -620,90 +965,6 @@
     <t>Ethical problem</t>
   </si>
   <si>
-    <t>En, ik denk ook dat je je ethische normen kader je ethisch kader eigenlijk ook wel weer als input kan gebruiken. Waarbij het AI model daar ook weer rekening mee houdt.</t>
-  </si>
-  <si>
-    <t>Ethical standards framework</t>
-  </si>
-  <si>
-    <t>Type of input / AI discrimination / Abusing AI</t>
-  </si>
-  <si>
-    <t>Ethical requirement / Technical requirement</t>
-  </si>
-  <si>
-    <t>Ik vind dat je AI-tools die je gaat gebruiken in je bedrijfsspecifieke context, dat die gecheckt moeten zijn, dat afspraken met de leveranciers gemaakt zijn, et cetera ja, dus het moet onder bepaalde randvoorwaarden gebeuren.</t>
-  </si>
-  <si>
-    <t>Agreements about AI tools and distributors</t>
-  </si>
-  <si>
-    <t>Choice on AI tool / Policy about AI use</t>
-  </si>
-  <si>
-    <t>Ethical requirement / User requirement</t>
-  </si>
-  <si>
-    <t>Je hebt natuurlijk gewoon je eigen verantwoordelijkheid en aansprakelijkheid op dat vlak.</t>
-  </si>
-  <si>
-    <t>Responsibility of AI use</t>
-  </si>
-  <si>
-    <t>Policy on AI use</t>
-  </si>
-  <si>
-    <t>Ook al heeft de AI output het verkeerd gedaan. Dan aanvaard ik daarvan de consequenties.</t>
-  </si>
-  <si>
-    <t>Accountability on AI use</t>
-  </si>
-  <si>
-    <t>Policy on AI use/ Trust in AI</t>
-  </si>
-  <si>
-    <t>Ja, ik vind dat ik er redelijk goed bekend mee ben.</t>
-  </si>
-  <si>
-    <t>Knowledge on AI</t>
-  </si>
-  <si>
-    <t>Experience AI</t>
-  </si>
-  <si>
-    <t>Participant information</t>
-  </si>
-  <si>
-    <t>Ik heb diverse AI tools, we hebben onder de meest bekende natuurlijk ChatGPT, mee geëxperimenteerd.</t>
-  </si>
-  <si>
-    <t>Experimentation AI</t>
-  </si>
-  <si>
-    <t>Ik ben ooit begonnen als IT auditor. Dus echt het beoordelen van IT systemen aan de hand van risico en controle matrix onder andere</t>
-  </si>
-  <si>
-    <t>IT audit experience / control experience</t>
-  </si>
-  <si>
-    <t>Work experience</t>
-  </si>
-  <si>
-    <t>maar eigenlijk sinds een aantal jaar heb ik mijn focus wat verlegd naar risicobeheersing rondom AI</t>
-  </si>
-  <si>
-    <t>Work experience with AI</t>
-  </si>
-  <si>
-    <t>En met dat team adviseren we bedrijven over de verantwoorde inzet van AI</t>
-  </si>
-  <si>
-    <t>Consulting on responsible AI</t>
-  </si>
-  <si>
-    <t>Work experience / Experience AI</t>
-  </si>
-  <si>
     <t>Wij schrijven beleid voor IT beheersing en IT processen.</t>
   </si>
   <si>
@@ -725,156 +986,24 @@
     <t>Interest in AI</t>
   </si>
   <si>
-    <t>ik denk als je daar je daar doelstellingen in stopt, hè? Dat kan bijvoorbeeld zijn dat je daar gewoon een strategiedocument opstuurt.</t>
-  </si>
-  <si>
-    <t>Goals and strategy documents as input</t>
-  </si>
-  <si>
-    <t>Type of input</t>
-  </si>
-  <si>
-    <t>Technical requirement</t>
-  </si>
-  <si>
-    <t>Als je een normenkader erin gooit, een ISO normen kader, erin plakt</t>
-  </si>
-  <si>
-    <t>Framework as input</t>
-  </si>
-  <si>
-    <t>Ik denk ook als je er een procesbeschrijving in stopt</t>
-  </si>
-  <si>
-    <t>Process documentation as input</t>
-  </si>
-  <si>
-    <t>Wanneer het geen standaard proces is, maar je hebt wel goed het proces gedocumenteerd. Denk ik dat dat redelijk spot on is.</t>
-  </si>
-  <si>
-    <t>Process documentation as input / process documentation must be good</t>
-  </si>
-  <si>
-    <t>Type of input / Quality input</t>
-  </si>
-  <si>
-    <t>Naast alles wat wat er de afgelopen jaren in dat model is gepropt vanuit internet, heb ik hier ook bij nog de organisatie specifieke documentatie, je hebt hier ook toegang tot het intranet, en by the way, ik ga jou heel gericht voeden met strategiedocumenten, jaarplannen, meerjarenplannen, budgetten, beleidsstukken, standaarden en ik wil dat je dat ook meeneemt in je risicobeoordeling</t>
-  </si>
-  <si>
-    <t>Many types of documents as input</t>
-  </si>
-  <si>
-    <t>Hij ligt aan het doel van het control framework. Als iets compliance doelstelling heeft, dan moet je natuurlijk de wet en regelgeving of de normen kaders als input hebben.</t>
-  </si>
-  <si>
-    <t>Type of input depends on context</t>
-  </si>
-  <si>
-    <t>Als het control framework er is om te zorgen dat ik mijn strategische of mijn tactische of mijn operationele doelstellingen haal, dan kom je meer op de inputdocumenten als je strategiedocumenten, je meerjarenplan, je jaarplannen, je kwartaaldoelstellingen.</t>
-  </si>
-  <si>
-    <t>Dat de organisatiecontext mee wordt gegeven en eigenlijk al die input documenten dat het model daarop is ingeprikt.</t>
-  </si>
-  <si>
-    <t>Organisational context as input / specialised AI-model</t>
-  </si>
-  <si>
-    <t>Type of input / Choice on AI tool</t>
-  </si>
-  <si>
-    <t>De output moet volledig zijn. Je wilt zeker weten dat dat enorme kader volledig is afgedekt, en je wilt zeker weten dat met die set aan controls een bepaalde doelstelling wordt gehaald.</t>
-  </si>
-  <si>
-    <t>Completeness of output</t>
-  </si>
-  <si>
-    <t>Output AI</t>
-  </si>
-  <si>
-    <t>Dus je wilt bij het opstellen van je control framework wel een aantal parameters meegeven rondom risico en risicobereidheid.</t>
-  </si>
-  <si>
-    <t>Control framework parameters as input</t>
-  </si>
-  <si>
-    <t>Dat het rekening houdt met context, risicobereidheid, het type organisatie, de mate detail die ik als gebruiker erin wil hebben.</t>
-  </si>
-  <si>
-    <t>Types of input</t>
-  </si>
-  <si>
-    <t>Ik denk dat je met een standaard koppeling met het internet of een confluence site of een aantal van dat soort dingen, al noem je dat samenwerk tools binnen organisaties, dat je daarmee die tool met context kan voeden.</t>
-  </si>
-  <si>
-    <t>Connection to public relevant documents for input</t>
-  </si>
-  <si>
-    <t>Je kunt er een variabele meegeven en het restrisico willen we zo laag mogelijk hebben, dus we willen echt helemaal dichttimmeren, dus we willen een kopie van preventief en detective bijvoorbeeld.</t>
-  </si>
-  <si>
-    <t>Variable as input for risk response</t>
-  </si>
-  <si>
-    <t>Je hebt documentatie die je nodig hebt om die skill van een control framework te maken aan te leren, en je hebt documentatie nodig van het object waarvan je zo een control framework wil gaan maken. Dus dat zijn natuurlijk verschillende niveaus, maar voor beide heb je informatie nodig.</t>
-  </si>
-  <si>
-    <t>Two types of documentation as input</t>
-  </si>
-  <si>
-    <t>Ja dat kan natuurlijk van alles zijn, je datakwaliteit van je input, data kan onvoldoende beschikbaar zijn</t>
-  </si>
-  <si>
-    <t>Dataquality / data availability</t>
-  </si>
-  <si>
-    <t>Quality of input</t>
-  </si>
-  <si>
-    <t>Zo'n systeem kan natuurlijk ook hallucineren, zoals ze dat zo mooi noemen, hè? Als je het over generatieve AI hebt, dus dat zit juist in het feit dat hij niet echt jouw vraag begrijpt, maar dat hij gewoon berekent: “Wat is het meest logische antwoord op basis van wat het kind het verleden gelezen heb?"</t>
-  </si>
-  <si>
-    <t>AI hallucination</t>
-  </si>
-  <si>
-    <t>Quality of output</t>
-  </si>
-  <si>
-    <t>Ik denk dat je in de basis dat je geen enorme risico's loopt. Nou moet ik eerlijk zeggen als je vanuit technisch perspectief goed weet hoe zo'n proces werkt dat je een heel eind moet kunnen komen.</t>
-  </si>
-  <si>
-    <t>Few technical problems</t>
-  </si>
-  <si>
-    <t>Ja, dan het wel lijkt alsof het klopt. Ja, dat is dan een potentieel risico dat je dus je risico's die je hebt geïdentificeerd of tot maatregelen hebt omgezet niet echt passen.</t>
-  </si>
-  <si>
     <t>Ja, de dingen waar je zelf bouwt, dan moet je op een of andere manier die data uit je zelfbouw applicaties kunnen halen en kunnen voeden aan het trainingsmiddel.</t>
   </si>
   <si>
     <t>Data extraction from self built applications</t>
   </si>
   <si>
-    <t>Application data as input</t>
-  </si>
-  <si>
     <t>Dus dan kan je wellicht gewoon de instructies van AWS en instructies van van ServiceNow en al die andere platformen gewoon kunnen voeden en dan heb je voor 90 a 80%, en sowieso gaan we steeds meer over op die standaard platformen</t>
   </si>
   <si>
     <t>AI application in standard platforms</t>
   </si>
   <si>
-    <t>Platform instructions as input / Frequency of standardised platform use</t>
-  </si>
-  <si>
     <t>Ja ja, exact en voor de gestandaardiseerde pap heb je dat gewoon. Daarvoor is die documentatie er, maar voor zelfbouw applicaties zou dat er minder zijn denk ik of niet zo uitgebreid als een gestandaardiseerd platform.</t>
   </si>
   <si>
     <t>Documentation for self built applications</t>
   </si>
   <si>
-    <t>Application documentation as input</t>
-  </si>
-  <si>
     <t>Dus alle instructies, werk instructie niveau, die zou je daar allemaal in een groot trainingsmodel willen gooien.</t>
   </si>
   <si>
@@ -926,36 +1055,6 @@
     <t>Quality of input documents / Availability of input documents</t>
   </si>
   <si>
-    <t>En er is ook de mate waarin je door je organisatie wordt toegestaan om dat te mogen doen. Ik denk dat dat heel erg de bruikbaarheid van AI, in het definiëren van je control framework, bepaalt.</t>
-  </si>
-  <si>
-    <t>Permission to use types of document as input</t>
-  </si>
-  <si>
-    <t>Type of input / policy about AI use</t>
-  </si>
-  <si>
-    <t>Technical requirement / User requirement</t>
-  </si>
-  <si>
-    <t>Maar vanuit het gebruikersperspectief en gebruikers gemak, dan moet de AI snel zijn, kwalitatief goede antwoorden geven, en er moet weinig interactie nodig zijn.</t>
-  </si>
-  <si>
-    <t>Speed, quality and interaction with AI-system</t>
-  </si>
-  <si>
-    <t>Choice on AI tool / interaction with AI</t>
-  </si>
-  <si>
-    <t>Of dat je te veel gelooft in het systeem en je gebruikt een generatieve AI systeem om te bedenken, als je een procesbeschrijving geeft. Waar zitten hier de potentiële risico's en je kijkt daar zelf niet kritisch naar, en het is door hallucinatie beïnvloed op een negatieve manier, dan heb je gewoon een minder effectief raamwerk.</t>
-  </si>
-  <si>
-    <t>AI hallucination / too much trust in output</t>
-  </si>
-  <si>
-    <t>Quality of output / Trust in AI</t>
-  </si>
-  <si>
     <t>En waar onze security managers vooral bang voor zijn, is dat wij bepaalde, en dat is niet voor beleid, maar vooral voor medewerkers die met klanten in contact staan, is dat zij op basis van ChatGPT verkeerde conclusies trekken, en dat dat voor waarheid wordt aangenomen en daardoor een verkeerde beslissing nemen. Dat is de angst.</t>
   </si>
   <si>
@@ -965,111 +1064,6 @@
     <t>Output quality / Output validation</t>
   </si>
   <si>
-    <t>En dan denk ik niet, zeg maar dat de ernst beoordeling of de risicobeoordeling, dat hij zo goed is als dat we dat met verschillende stakeholders zouden kunnen doen.</t>
-  </si>
-  <si>
-    <t>AI’s risk assessment capacity</t>
-  </si>
-  <si>
-    <t>User requirement</t>
-  </si>
-  <si>
-    <t>dan aan AI vragen van: “goh hè? Kan je dat ook nog eens een keer onderbouwen”?</t>
-  </si>
-  <si>
-    <t>Have AI elaborate</t>
-  </si>
-  <si>
-    <t>Interaction with AI</t>
-  </si>
-  <si>
-    <t>Ja absoluut en ook inderdaad vragen aan AI om beheersmaatregelen te definiëren die een risico afdekken.</t>
-  </si>
-  <si>
-    <t>En dan lees ik het zelf nog eens een keer door. Dan heb ik bepaalde twijfels en dan moet ik feedback geven.</t>
-  </si>
-  <si>
-    <t>More prompting</t>
-  </si>
-  <si>
-    <t>Ja, nou ja, dat denk ik wel dat je inderdaad enige ervaring moet opbouwen met dat soort modellen om te weten van: "Welke interactie moet ik hebben, hoe moet ik prompten?”</t>
-  </si>
-  <si>
-    <t>Good prompting</t>
-  </si>
-  <si>
-    <t>Nou ja, vertrouwen is prima mits je maar gevalideerd</t>
-  </si>
-  <si>
-    <t>Output validation</t>
-  </si>
-  <si>
-    <t>We hebben gelukkig voldoende oude rotten in het vak rondlopen die het al 20 jaar gedaan hebben. He, die dan ja, de output op waarde kunnen schatten.</t>
-  </si>
-  <si>
-    <t>Evaluating output</t>
-  </si>
-  <si>
-    <t>Ik zit al wel 20 jaar verder te denken. Hé, zijn er dan nog steeds mensen die dan de output op waarde kunnen schatten?</t>
-  </si>
-  <si>
-    <t>Doubts on future experience</t>
-  </si>
-  <si>
-    <t>Future policy / Output validation</t>
-  </si>
-  <si>
-    <t>Ook probeer ik weleens dezelfde prompts in die verschillende modellen te zetten en dan te kijken wat het verschil is qua output. Dan ga je hele gerichte vragen stellen, en dan kunnen die antwoorden ook wel enorm uiteenlopen.</t>
-  </si>
-  <si>
-    <t>Different outputs from different AI-models</t>
-  </si>
-  <si>
-    <t>En ik als mens heb nog steeds voldoende vertrouwen in mezelf dat ik het beste antwoord uit de verschillende antwoorden kan destilleren.</t>
-  </si>
-  <si>
-    <t>Output validation by human</t>
-  </si>
-  <si>
-    <t>Dat de gebruiker in dat geval verwacht dat die AI die SAP tool gewoon heel goed kent, versus een andere organisatie waarbij en nauwelijks standaard pakketten en applicaties zijn en dus die verwachting helemaal niet heeft.</t>
-  </si>
-  <si>
-    <t>Expectations about output</t>
-  </si>
-  <si>
-    <t>Dus als jij een control framework wil maken en je gaat daar AI gebruiken, dan moet je natuurlijk wel kunnen beoordelen of dit nou een goede maatregel is bijvoorbeeld.</t>
-  </si>
-  <si>
-    <t>Dus het domein waar die zo een framework voor gaat maken, dus eigenlijk gaat het erom dat zo'n persoon goed de uitkomsten van zo'n AI systeem weet te beoordelen. Dus dat vraagt van een inhoudelijke kennis, vraagt kennis om de limitaties van zo'n systeem voldoende te weten.</t>
-  </si>
-  <si>
-    <t>User knowledge on AI systems / validation of output</t>
-  </si>
-  <si>
-    <t>Output validation / interaction AI</t>
-  </si>
-  <si>
-    <t>Ja, dat komt weer op dezelfde risico's die ik net noemde. Weet je wel, je krijgt gewoon een minder goed beheersingsraamwerk, waardoor je potentieel bepaalde maatregelen niet treft, die je eigenlijk wel moet treffen.</t>
-  </si>
-  <si>
-    <t>Lack of experience or training</t>
-  </si>
-  <si>
-    <t>Maar ook, en dat gaat wel ver, als je alleen maar AI systemen gaat gebruiken, dat je dan zelf niet goed meer nadenkt. Dan raak je zelf de competentie langzaam kwijt. Maar dat is meer een indirect gevolg, om het zo te zeggen.</t>
-  </si>
-  <si>
-    <t>Losing control skills</t>
-  </si>
-  <si>
-    <t>Output validation / future outlook</t>
-  </si>
-  <si>
-    <t>Het zou natuurlijk kunnen. Ja tuurlijk, ja, dat zou wel echt kunnen. Ja, hoe snel dat gaat weet ik ook niet, hè? Maar een beetje hetzelfde als met het navigatiesysteem. Vroeger reed Iedereen zonder navigatiesysteem, zocht het even op, en reden er gewoon naartoe en dan kwam het wel goed, maar nu rijdt iedereen met navigatiesysteem en vergeten ze gewoon de route.</t>
-  </si>
-  <si>
-    <t>Losing skills over time</t>
-  </si>
-  <si>
     <t>Nee, het enige waar je voor moet oppassen is dat je volledig vertrouwt op het AI programma. Dat je het klakkeloos gaat overnemen. Dat is niet echt ethisch</t>
   </si>
   <si>
@@ -1142,43 +1136,37 @@
     <t>Interaction AI / Output validation</t>
   </si>
   <si>
-    <t>Ik denk dat je best wel met een aardige voorzet komt, maar dan moet je heel goed gaan prompten</t>
-  </si>
-  <si>
-    <t>AI as starting point / good prompting</t>
-  </si>
-  <si>
-    <t>Supportive role AI / interaction with AI</t>
-  </si>
-  <si>
-    <t>User requirement / AI implementation</t>
-  </si>
-  <si>
-    <t>Ik denk in dit geval dat vooral de kennis van degene die zo'n systeem gebruikt, dat dat doorslaggevend is. Als dat op orde is om het zo maar te zeggen, dan denk ik dat die combi van AI en het maken van beheersingsraamwerken best wel een krachtige zou kunnen zijn, juist omdat je in die fase van het identificeren van risico's en het bedenken van passende maatregelen wat creativiteit en denkwerk kan gebruiken.</t>
-  </si>
-  <si>
-    <t>User knowledge / AI for risk identification / AI for risk response</t>
-  </si>
-  <si>
-    <t>Interaction AI / Implementation AI</t>
-  </si>
-  <si>
     <t>Maar ze zijn wel heel erg paniekerig over hoe de output van AI wordt geïnterpreteerd. En dan ja, dat vind ik heel jammer, want volgens mij mis je enorm veel kansen op dat vlak, zeker voor onze engineers, want die kunnen ook gewoon heel erg geholpen worden met schrijven van software op basis van AI.</t>
   </si>
   <si>
     <t>Output misinterpretation / AI for software development / Missed opportunity</t>
   </si>
   <si>
-    <t>Output validation / Current implementation AI / Opinion on policy</t>
-  </si>
-  <si>
-    <t>Het vraagt ook kennis over de input data die erin is, weet je wel: “ben je ervan overtuigd dat de kwaliteit voldoende is? Ja of nee?”</t>
-  </si>
-  <si>
-    <t>User knowledge on input data / validation of input</t>
-  </si>
-  <si>
-    <t>User requirement / Technical requirement</t>
+    <t>Output validation / Current implementation AI</t>
+  </si>
+  <si>
+    <t>Text fragment</t>
+  </si>
+  <si>
+    <t>Open coding</t>
+  </si>
+  <si>
+    <t>Axial coding</t>
+  </si>
+  <si>
+    <t>Selective coding</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>Ineens werd die data wel relevant, maar ja, ga maar dan eventjes alles als je dat ooit niet hebt vastgelegd en nu wel vast moeten leggen, allemaal weer eventjes aanvullen die data, dan moet je klantenlijst gaan vallen. Dan moet je eens formuliertjes laten invullen. Hebben ze allemaal geen zin in. Dus dat kost enorm veel tijd en geld.</t>
+  </si>
+  <si>
+    <t>Collecting data previously not necessary</t>
+  </si>
+  <si>
+    <t>Availability of input</t>
   </si>
 </sst>
 </file>
@@ -1189,6 +1177,16 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1203,16 +1201,6 @@
       <sz val="8.0"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1248,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1258,11 +1246,17 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -1499,1487 +1493,1487 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="E1" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2.0</v>
+        <v>32</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2.0</v>
+        <v>36</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2.0</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2.0</v>
+      <c r="E17" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2.0</v>
+        <v>36</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2.0</v>
+        <v>36</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2.0</v>
+        <v>36</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2.0</v>
+        <v>36</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2.0</v>
+        <v>53</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2.0</v>
+      <c r="E23" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4">
-        <v>3.0</v>
+        <v>53</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="4">
-        <v>3.0</v>
+        <v>53</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3.0</v>
+        <v>53</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3.0</v>
+        <v>53</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="4">
-        <v>3.0</v>
+        <v>53</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="4">
-        <v>3.0</v>
+        <v>53</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="4">
-        <v>3.0</v>
+        <v>74</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3.0</v>
+        <v>78</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3.0</v>
+        <v>78</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="4">
-        <v>3.0</v>
+        <v>78</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="4">
-        <v>3.0</v>
+        <v>88</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3.0</v>
+        <v>88</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="4">
-        <v>3.0</v>
+        <v>94</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="4">
+        <v>94</v>
+      </c>
+      <c r="E38" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="4">
-        <v>3.0</v>
+      <c r="E41" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="4">
+        <v>94</v>
+      </c>
+      <c r="E42" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="4">
-        <v>3.0</v>
+        <v>94</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="4">
-        <v>3.0</v>
+        <v>94</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="4">
-        <v>3.0</v>
+        <v>94</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="4">
-        <v>3.0</v>
+        <v>122</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="4">
+        <v>128</v>
+      </c>
+      <c r="E50" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="4">
+        <v>128</v>
+      </c>
+      <c r="E51" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="4">
+        <v>128</v>
+      </c>
+      <c r="E53" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="4">
+        <v>128</v>
+      </c>
+      <c r="E54" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="4">
+        <v>128</v>
+      </c>
+      <c r="E55" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2.0</v>
+        <v>128</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2.0</v>
+        <v>128</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2.0</v>
+        <v>128</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E59" s="4">
-        <v>2.0</v>
+        <v>128</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E60" s="4">
-        <v>2.0</v>
+        <v>128</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="4">
-        <v>2.0</v>
+        <v>153</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" s="4">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" s="4">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" s="4">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" s="4">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" s="4">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" s="4">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" s="4">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="4">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" s="4">
-        <v>3.0</v>
+        <v>3</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1.0</v>
+        <v>178</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1.0</v>
+        <v>28</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1.0</v>
+        <v>28</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" s="4">
-        <v>1.0</v>
+        <v>185</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" s="4">
-        <v>1.0</v>
+        <v>185</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" s="4">
-        <v>1.0</v>
+        <v>36</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E78" s="4">
-        <v>1.0</v>
+        <v>36</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>186</v>
+        <v>39</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E79" s="4">
+        <v>36</v>
+      </c>
+      <c r="E79" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" s="4">
+        <v>36</v>
+      </c>
+      <c r="E80" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E81" s="4">
+        <v>36</v>
+      </c>
+      <c r="E81" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" s="4">
+        <v>36</v>
+      </c>
+      <c r="E82" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" s="4">
-        <v>3.0</v>
+        <v>53</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E84" s="4">
-        <v>3.0</v>
+        <v>53</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1.0</v>
+        <v>53</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1.0</v>
+        <v>53</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1.0</v>
+        <v>88</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E88" s="4">
-        <v>1.0</v>
+        <v>88</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="89">
@@ -2993,129 +2987,129 @@
         <v>218</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E89" s="4">
-        <v>1.0</v>
+        <v>88</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="C90" s="3" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1.0</v>
+        <v>94</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="C91" s="3" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E91" s="4">
+        <v>94</v>
+      </c>
+      <c r="E91" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="D92" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E92" s="4">
+        <v>94</v>
+      </c>
+      <c r="E92" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E93" s="4">
+        <v>94</v>
+      </c>
+      <c r="E93" s="2">
         <v>2.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="C94" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E94" s="4">
-        <v>3.0</v>
+        <v>94</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E95" s="4">
-        <v>3.0</v>
+        <v>94</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="D96" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E96" s="4">
-        <v>3.0</v>
+        <v>122</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="97">
@@ -3123,118 +3117,118 @@
         <v>235</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E97" s="4">
-        <v>3.0</v>
+        <v>128</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="D98" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E98" s="4">
-        <v>1.0</v>
+        <v>128</v>
+      </c>
+      <c r="E98" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E99" s="4">
-        <v>1.0</v>
+        <v>128</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="D100" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E100" s="4">
-        <v>1.0</v>
+        <v>128</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="C101" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1.0</v>
+        <v>128</v>
+      </c>
+      <c r="E101" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="D102" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E102" s="4">
-        <v>1.0</v>
+        <v>153</v>
+      </c>
+      <c r="E102" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="C103" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1.0</v>
+      <c r="E103" s="2">
+        <v>2.0</v>
       </c>
     </row>
     <row r="104">
@@ -3242,152 +3236,152 @@
         <v>252</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E104" s="4">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="E104" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="E105" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>258</v>
+        <v>2</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E106" s="4">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="E106" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="E107" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E108" s="4">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="E108" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="4">
-        <v>1.0</v>
+        <v>3</v>
+      </c>
+      <c r="E109" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E110" s="4">
-        <v>2.0</v>
+        <v>3</v>
+      </c>
+      <c r="E110" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E111" s="4">
-        <v>2.0</v>
+        <v>3</v>
+      </c>
+      <c r="E111" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>271</v>
+        <v>2</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E112" s="4">
-        <v>2.0</v>
+        <v>3</v>
+      </c>
+      <c r="E112" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="113">
@@ -3398,47 +3392,47 @@
         <v>273</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E113" s="4">
-        <v>2.0</v>
+        <v>3</v>
+      </c>
+      <c r="E113" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="C114" s="3" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E114" s="4">
-        <v>2.0</v>
+        <v>3</v>
+      </c>
+      <c r="E114" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>273</v>
-      </c>
       <c r="C115" s="3" t="s">
-        <v>274</v>
+        <v>2</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E115" s="4">
-        <v>2.0</v>
+        <v>3</v>
+      </c>
+      <c r="E115" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="116">
@@ -3452,9 +3446,9 @@
         <v>280</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E116" s="4">
+        <v>3</v>
+      </c>
+      <c r="E116" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -3469,43 +3463,43 @@
         <v>283</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E117" s="4">
+        <v>284</v>
+      </c>
+      <c r="E117" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>286</v>
+        <v>2</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E118" s="4">
+        <v>32</v>
+      </c>
+      <c r="E118" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="D119" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E119" s="4">
+        <v>32</v>
+      </c>
+      <c r="E119" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -3520,9 +3514,9 @@
         <v>291</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E120" s="4">
+        <v>32</v>
+      </c>
+      <c r="E120" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -3537,9 +3531,9 @@
         <v>294</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E121" s="4">
+        <v>185</v>
+      </c>
+      <c r="E121" s="2">
         <v>3.0</v>
       </c>
     </row>
@@ -3551,646 +3545,663 @@
         <v>296</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E122" s="4">
+        <v>36</v>
+      </c>
+      <c r="E122" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="D123" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E123" s="4">
+        <v>36</v>
+      </c>
+      <c r="E123" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E124" s="4">
+        <v>36</v>
+      </c>
+      <c r="E124" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>303</v>
+        <v>196</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E125" s="4">
+        <v>36</v>
+      </c>
+      <c r="E125" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>305</v>
+        <v>196</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E126" s="4">
-        <v>1.0</v>
+        <v>36</v>
+      </c>
+      <c r="E126" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E127" s="4">
-        <v>1.0</v>
+        <v>36</v>
+      </c>
+      <c r="E127" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E128" s="4">
-        <v>2.0</v>
+        <v>36</v>
+      </c>
+      <c r="E128" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E129" s="4">
+        <v>36</v>
+      </c>
+      <c r="E129" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>165</v>
+        <v>309</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E130" s="4">
-        <v>1.0</v>
+        <v>310</v>
+      </c>
+      <c r="E130" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E131" s="4">
-        <v>1.0</v>
+        <v>53</v>
+      </c>
+      <c r="E131" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E132" s="4">
-        <v>1.0</v>
+        <v>53</v>
+      </c>
+      <c r="E132" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E133" s="4">
-        <v>1.0</v>
+        <v>88</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>322</v>
+        <v>213</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E134" s="4">
-        <v>1.0</v>
+        <v>88</v>
+      </c>
+      <c r="E134" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E135" s="4">
-        <v>1.0</v>
+        <v>88</v>
+      </c>
+      <c r="E135" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>329</v>
+        <v>87</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E136" s="4">
-        <v>1.0</v>
+        <v>88</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E137" s="4">
-        <v>1.0</v>
+        <v>94</v>
+      </c>
+      <c r="E137" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E138" s="4">
-        <v>1.0</v>
+        <v>94</v>
+      </c>
+      <c r="E138" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E139" s="4">
-        <v>1.0</v>
+        <v>94</v>
+      </c>
+      <c r="E139" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E140" s="4">
-        <v>1.0</v>
+        <v>94</v>
+      </c>
+      <c r="E140" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E141" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E141" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E142" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E142" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>344</v>
+        <v>225</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E143" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E143" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>349</v>
+        <v>225</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E144" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E144" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E145" s="4">
-        <v>2.0</v>
+        <v>94</v>
+      </c>
+      <c r="E145" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E146" s="4">
+        <v>94</v>
+      </c>
+      <c r="E146" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E147" s="4">
+        <v>122</v>
+      </c>
+      <c r="E147" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>358</v>
+        <v>52</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E148" s="4">
+        <v>128</v>
+      </c>
+      <c r="E148" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E149" s="4">
+        <v>128</v>
+      </c>
+      <c r="E149" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E150" s="4">
+        <v>128</v>
+      </c>
+      <c r="E150" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>365</v>
+        <v>138</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E151" s="4">
+        <v>128</v>
+      </c>
+      <c r="E151" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E152" s="4">
+        <v>128</v>
+      </c>
+      <c r="E152" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E153" s="4">
+        <v>128</v>
+      </c>
+      <c r="E153" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>370</v>
+        <v>93</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E154" s="4">
+        <v>128</v>
+      </c>
+      <c r="E154" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E155" s="4">
+        <v>128</v>
+      </c>
+      <c r="E155" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E156" s="4">
-        <v>1.0</v>
+        <v>128</v>
+      </c>
+      <c r="E156" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E157" s="4">
-        <v>2.0</v>
+        <v>128</v>
+      </c>
+      <c r="E157" s="2">
+        <v>3.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E158" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C160" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E158" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E159" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="5"/>
+      <c r="D160" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Coding/Interview Coding.xlsx
+++ b/Coding/Interview Coding.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="386">
   <si>
     <t>Dus die risico identificatie is denk ik heel goed te doen met behulp van AI.</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Continuous checks on control frameworks</t>
+  </si>
+  <si>
+    <t>Implementation AI / Continuous control creation</t>
   </si>
   <si>
     <t>Maar je zou natuurlijk ook kunnen inprikken op processen, systemen, applicaties, en daar data uit kunnen halen en tegen AI zeggen: “maak een control framework wat niet theoretische controles bedoeld, maar waarin je controles opneemt die ook daadwerkelijk zijn geïmplementeerd".</t>
@@ -218,7 +221,7 @@
     <t>Discrimination by AI-models</t>
   </si>
   <si>
-    <t>AI discrimination</t>
+    <t xml:space="preserve">Ethical implications of AI  </t>
   </si>
   <si>
     <t>Dat is pas meer aan de hand wanneer je het AI gaat gebruiken op daadwerkelijke data dan wanneer je AI gaat gebruiken om vanuit doelstellingen, wet- en regelgeving, procesdocumentatie, en beleidskaders een control framework vorm te geven.</t>
@@ -233,7 +236,7 @@
     <t>Ethical standards framework</t>
   </si>
   <si>
-    <t>Type of input / AI discrimination / Abusing AI</t>
+    <t>Type of input / Ethical implications of AI / Abusing AI</t>
   </si>
   <si>
     <t>Ethical requirement / Technical requirement</t>
@@ -350,7 +353,7 @@
     <t>Completeness of output</t>
   </si>
   <si>
-    <t>Output AI</t>
+    <t>Quality of output</t>
   </si>
   <si>
     <t>Dus je wilt bij het opstellen van je control framework wel een aantal parameters meegeven rondom risico en risicobereidheid.</t>
@@ -443,7 +446,7 @@
     <t>Doubts on future experience</t>
   </si>
   <si>
-    <t>Future policy / Output validation</t>
+    <t>Future outlook / Output validation</t>
   </si>
   <si>
     <t>Ook probeer ik weleens dezelfde prompts in die verschillende modellen te zetten en dan te kijken wat het verschil is qua output. Dan ga je hele gerichte vragen stellen, en dan kunnen die antwoorden ook wel enorm uiteenlopen.</t>
@@ -689,351 +692,348 @@
     <t>Dataquality / data availability</t>
   </si>
   <si>
+    <t>Quality of input / Availability of input</t>
+  </si>
+  <si>
+    <t>Zo'n systeem kan natuurlijk ook hallucineren, zoals ze dat zo mooi noemen, hè? Als je het over generatieve AI hebt, dus dat zit juist in het feit dat hij niet echt jouw vraag begrijpt, maar dat hij gewoon berekent: “Wat is het meest logische antwoord op basis van wat het kind het verleden gelezen heb?"</t>
+  </si>
+  <si>
+    <t>AI hallucination</t>
+  </si>
+  <si>
+    <t>Ik denk dat je in de basis dat je geen enorme risico's loopt. Nou moet ik eerlijk zeggen als je vanuit technisch perspectief goed weet hoe zo'n proces werkt dat je een heel eind moet kunnen komen.</t>
+  </si>
+  <si>
+    <t>Few technical problems</t>
+  </si>
+  <si>
+    <t>Ja, dan het wel lijkt alsof het klopt. Ja, dat is dan een potentieel risico dat je dus je risico's die je hebt geïdentificeerd of tot maatregelen hebt omgezet niet echt passen.</t>
+  </si>
+  <si>
+    <t>Of dat je te veel gelooft in het systeem en je gebruikt een generatieve AI systeem om te bedenken, als je een procesbeschrijving geeft. Waar zitten hier de potentiële risico's en je kijkt daar zelf niet kritisch naar, en het is door hallucinatie beïnvloed op een negatieve manier, dan heb je gewoon een minder effectief raamwerk.</t>
+  </si>
+  <si>
+    <t>AI hallucination / too much trust in output</t>
+  </si>
+  <si>
+    <t>Quality of output / Trust in AI / Mistake implications</t>
+  </si>
+  <si>
+    <t>Dus als jij een control framework wil maken en je gaat daar AI gebruiken, dan moet je natuurlijk wel kunnen beoordelen of dit nou een goede maatregel is bijvoorbeeld.</t>
+  </si>
+  <si>
+    <t>Dus het domein waar die zo een framework voor gaat maken, dus eigenlijk gaat het erom dat zo'n persoon goed de uitkomsten van zo'n AI systeem weet te beoordelen. Dus dat vraagt van een inhoudelijke kennis, vraagt kennis om de limitaties van zo'n systeem voldoende te weten.</t>
+  </si>
+  <si>
+    <t>User knowledge on AI systems / validation of output</t>
+  </si>
+  <si>
+    <t>Output validation / interaction AI</t>
+  </si>
+  <si>
+    <t>Ja, dat komt weer op dezelfde risico's die ik net noemde. Weet je wel, je krijgt gewoon een minder goed beheersingsraamwerk, waardoor je potentieel bepaalde maatregelen niet treft, die je eigenlijk wel moet treffen.</t>
+  </si>
+  <si>
+    <t>Lack of experience or training</t>
+  </si>
+  <si>
+    <t>Maar ook, en dat gaat wel ver, als je alleen maar AI systemen gaat gebruiken, dat je dan zelf niet goed meer nadenkt. Dan raak je zelf de competentie langzaam kwijt. Maar dat is meer een indirect gevolg, om het zo te zeggen.</t>
+  </si>
+  <si>
+    <t>Losing control skills</t>
+  </si>
+  <si>
+    <t>Output validation / future outlook</t>
+  </si>
+  <si>
+    <t>Het zou natuurlijk kunnen. Ja tuurlijk, ja, dat zou wel echt kunnen. Ja, hoe snel dat gaat weet ik ook niet, hè? Maar een beetje hetzelfde als met het navigatiesysteem. Vroeger reed Iedereen zonder navigatiesysteem, zocht het even op, en reden er gewoon naartoe en dan kwam het wel goed, maar nu rijdt iedereen met navigatiesysteem en vergeten ze gewoon de route.</t>
+  </si>
+  <si>
+    <t>Losing skills over time</t>
+  </si>
+  <si>
+    <t>Ik denk in dit geval dat vooral de kennis van degene die zo'n systeem gebruikt, dat dat doorslaggevend is. Als dat op orde is om het zo maar te zeggen, dan denk ik dat die combi van AI en het maken van beheersingsraamwerken best wel een krachtige zou kunnen zijn, juist omdat je in die fase van het identificeren van risico's en het bedenken van passende maatregelen wat creativiteit en denkwerk kan gebruiken.</t>
+  </si>
+  <si>
+    <t>User knowledge / AI for risk identification / AI for risk response</t>
+  </si>
+  <si>
+    <t>Interaction AI / Implementation AI</t>
+  </si>
+  <si>
+    <t>Het vraagt ook kennis over de input data die erin is, weet je wel: “ben je ervan overtuigd dat de kwaliteit voldoende is? Ja of nee?”</t>
+  </si>
+  <si>
+    <t>User knowledge on input data / validation of input</t>
+  </si>
+  <si>
+    <t>User requirement / Technical requirement</t>
+  </si>
+  <si>
+    <t>Ook daar zitten heel veel maatregelen in, dus dat beweegt ook continu. Die technologie beweegt snel en daarmee bewegen ook je beheersingsmaatregelen mee.</t>
+  </si>
+  <si>
+    <t>Continuity of potential risks</t>
+  </si>
+  <si>
+    <t>Ik had een heel raamwerk opgezet, voor CSD maatregelen en ik was daar een half jaar mee bezig geweest en vervolgens vraag ik aan ChatGPT: “Geef mij eens de…” Dat was toen net in opkomst, dat net op de markt, dus ik probeerde wat en vervolgens krijg ik gewoon exact het lijstje waar ik een half jaar aan gewerkt heb.</t>
+  </si>
+  <si>
+    <t>AI for risk control creation</t>
+  </si>
+  <si>
+    <t>AI experience / Implementation AI</t>
+  </si>
+  <si>
+    <t>Zover is ChatGPT nog niet, dat hij hele onderliggende standaarden van platformen precies kent, maar daar zou je wel, door het AI model te voeden met best practices, maar ook de standaarden vanuit de platformen, die link proberen te leggen.</t>
+  </si>
+  <si>
+    <t>AI capability for general risk identification</t>
+  </si>
+  <si>
+    <t>Dus dat eerste niveau, dat haalt AI nog wel op dit moment. Die kan gewoon prima zeggen: “Ja, je moet je verlies op data, maar dan moet je een backup maatregel treffen.” Dat dat snapt hij wel.</t>
+  </si>
+  <si>
+    <t>AI for risk identification / AI for risk severity assessment</t>
+  </si>
+  <si>
+    <t>Die is voor ons heel moeilijk te maken omdat wij geen techneuten zijn, maar wel verstand hebben van de control objectives, maar een AI zou wellicht wel die taal slag kunnen maken, omdat die alles kan leren van het platform door hem te trainen op het platform. Je kunt ze alles leren van die control objectives en die kan wellicht wel makkelijk die link leggen tussen de werkelijkheid en de best practices.</t>
+  </si>
+  <si>
+    <t>AI for control formulation</t>
+  </si>
+  <si>
+    <t>Zeker als je gaat kijken naar een implementatie, hè? Dus heb je imaging, maar ook text-to-speech en text-to-video. Die zouden heel erg kunnen helpen bij de implementatie van control frameworks.</t>
+  </si>
+  <si>
+    <t>Implementation of other generative AI types / Implementation of control frameworks</t>
+  </si>
+  <si>
+    <t>Dus we hebben allemaal control objectives, en daar zetten we toetsen bij uit, bij teams, om te checken of zij voldoen aan die controls. Je zou wellicht ook die data kunnen laten trainen door de AI. Dus dat is eigenlijk een soort monitoring tool AI</t>
+  </si>
+  <si>
+    <t>Process monitoring by AI / Continuous control monitoring</t>
+  </si>
+  <si>
+    <t>Ja, eigenlijk een interne AI slimme auditor, die kijkt waar het allemaal mis gaat, en waar het goed gaat op basis daarvan een soort adviezen geeft.</t>
+  </si>
+  <si>
+    <t>AI supported continuous auditing</t>
+  </si>
+  <si>
+    <t>Dus hoe zou je dat integreren, en met welke tools? Doe je dat in een chatbot of in een webbrowser? Ja, dat lijkt me wel cruciaal voor de gebruikers. En hoe integreer je dat dan weer met je control framework tool?</t>
+  </si>
+  <si>
+    <t>Choice on type of AI integration</t>
+  </si>
+  <si>
+    <t>Het zou ideaal zijn als dat gewoon een op een is. “Dit zijn de controls. Hij maakt ze aan. Hij koppelt ze aan de systemen waar het voor geldt.” Dat zou wel de ideale wereld zijn.</t>
+  </si>
+  <si>
+    <t>Wish for completely connected system</t>
+  </si>
+  <si>
+    <t>Technologie beweegt continu. Dus wil je kort iteratief die aanpassingen doen en mee laten bewegen met de technologie je ook je control framework. Ja, en als je dat in een systeem doet. Ja, dan ben je spekkoper natuurlijk.</t>
+  </si>
+  <si>
+    <t>Continuous control adaptation / continuous risk identification</t>
+  </si>
+  <si>
+    <t>Ja, ja, en dat maar dat je het document er niet eens in hoeft te gooien, maar dat je ze connect met het internet. Dat je hem voedt met technologie platformen, instructies en continu laat itereren op dagelijkse basis, dat je eigenlijk een knopje indrukt. “Ik heb een nieuwe control bedacht en gevonden, omdat er nieuwe technologie is of er gaan controles af."</t>
+  </si>
+  <si>
+    <t>Continuous control creation / Completely connected system</t>
+  </si>
+  <si>
+    <t>Als je dat continu mee laat bewegen door een AI-model, ja dan kan je daar de factor 10 100 misschien wel minder mensen aan doen.</t>
+  </si>
+  <si>
+    <t>Control team reduction</t>
+  </si>
+  <si>
+    <t>Future outlook</t>
+  </si>
+  <si>
+    <t>Nee, ja, we hebben een heel stom beleid binnen ORGANISATIE C. Ze zijn bang dat wij conclusies trekken uit verkeerde informatie, omdat je de bron niet kunt checken met AI, of niet bij alle platformen.</t>
+  </si>
+  <si>
+    <t>AI policy at organisation</t>
+  </si>
+  <si>
+    <t>Current implementation AI / Output validation</t>
+  </si>
+  <si>
+    <t>AI implementation / Participant information / User requirement</t>
+  </si>
+  <si>
+    <t>Maar hoe de configuratie vervolgens in elkaar zit, dat is waar wij continu tegenaan lopen als beleidspartij binnen ORGANISATIE C. Hoe maak je de vertaalslag van controls naar daadwerkelijke instructies in de tooling en in de werkelijkheid?</t>
+  </si>
+  <si>
+    <t>We hebben ook heel veel beleid binnen ORGANISATIE C en dat is allemaal een documentjes gestopt. Ja, er is niemand die dat leest. Dus wat je aan die wet wilt vragen is, LLM, al je beleidsstukken… Het laten voeden en laten trainen en daar dan vragen over stellen. “Wat moet ik doen? Aan welke eisen moet ik voldoen?” Als ik test, geeft hij gewoon een lijstje met eisen die hangen aan testen.</t>
+  </si>
+  <si>
+    <t>Policy documents as input / Risk identification step</t>
+  </si>
+  <si>
+    <t>Type of input / Implementation AI</t>
+  </si>
+  <si>
+    <t>En ook daar hangt en staat het weer bij de data. Je moet wel die data hebben om dat antwoord te kunnen geven, maar veel van die data hebben we, alleen die is niet vindbaar op dit moment. Dus het vindbaar maken van beleid zou daarbij kunnen helpen. Dus je control framework hoort daarbij, is ook een van je beleidsstukken.</t>
+  </si>
+  <si>
+    <t>AI for risk identification / Policy documents as input / Existing control frameworks as input</t>
+  </si>
+  <si>
+    <t>Implementation AI / Type of input</t>
+  </si>
+  <si>
+    <t>Dan kunnen we trainingsprogramma's maken die heel makkelijk te maken zijn met AI. Het gaat ons namelijk heel veel tijd schelen om dingen uit te leggen.</t>
+  </si>
+  <si>
+    <t>Training on control implementation / Implementation of other generative AI types</t>
+  </si>
+  <si>
+    <t>Implementation AI / User training</t>
+  </si>
+  <si>
+    <t>Ja, zeker als je naar theorie kijkt, wel. Alleen in de praktijk zie je dat er heel veel best practices op de markt zijn waar je, zeker voor IT, informatie uit kunt halen, zoals COBIT.</t>
+  </si>
+  <si>
+    <t>Best practice control frameworks</t>
+  </si>
+  <si>
+    <t>Intensivity step</t>
+  </si>
+  <si>
+    <t>Dat is voor mijn branche mijn belangrijkste bron geweest voor het maken van het risico framework, omdat we eigenlijk al over deze dingen hebben nagedacht voordat je daarmee gaat starten. Dus COBIT, maar ook NIST en ISO zijn wel raamwerken die eigenlijk dit voorwerk al gedaan hebben.</t>
+  </si>
+  <si>
+    <t>Bijvoorbeeld: back up. Je weet gewoon dat de maatregel ‘back up’ nodig is, en dan hoef jij geen risico identificatie voor te doen.</t>
+  </si>
+  <si>
+    <t>En die risicobeheersing en respons, dan maak je zoveel mogelijk gebruik van de bedachte raamwerk dingen die er al zijn, want je kunt het zelf opnieuw gaan uitvinden, maar er zijn wel veel knappe koppen daarover nagedacht en daar maak je dan gebruik van.</t>
+  </si>
+  <si>
+    <t>Ja en die moet je natuurlijk wel doorvertalen naar de praktijk en de werkelijkheid van je organisatie, hè? Alleen hoe doe je dat dan in de praktijk bij je organisatie? Met welke technologie doe je dat en hoe past die controle objective op die technologie?</t>
+  </si>
+  <si>
+    <t>De why en de what kun je wel uit het risico framework halen, maar dat how niet. Die moet je zelf bedenken en toepassen en dan moet je in gesprek gaan met engineers.</t>
+  </si>
+  <si>
+    <t>Effort of control creation process</t>
+  </si>
+  <si>
+    <t>Je moet voor elke technologie, en we hebben nogal wat technologieën en applicaties, elke applicatie is weer anders en elk platform is weer anders en daar moet je mee omgaan en kijken hoe je daar invulling aan geeft.</t>
+  </si>
+  <si>
+    <t>Context of systems</t>
+  </si>
+  <si>
+    <t>Ja, daar gaat wel de meeste tijd in zitten en wij hebben ook nog heel veel zelfbouw. Ja, en daar moet je echt zelf de ontdekking gaan doen.</t>
+  </si>
+  <si>
+    <t>Self built applications / effort of risk identification</t>
+  </si>
+  <si>
+    <t>Ja, dus de opzet is vrij makkelijk. Dus wat ik net ook al een beetje zei. Het is veel hergebruik van bestaande dingen. Je hebt binnen een dag een lijstje met je blaadje controls, je controleraamwerk. Maar vervolgens de vertaling naar de praktijk. Dat is het lastigste. En afstemming met je stakeholders. Daar gaat gewoon de meeste tijd in zitten.</t>
+  </si>
+  <si>
+    <t>Intensivity step / Type of input</t>
+  </si>
+  <si>
+    <t>Control process / Technical requirement</t>
+  </si>
+  <si>
+    <t>Ik denk dat er weinig privacygevoelige informatie in ons beleidsstuk staat. Het is wel gevoelige informatie natuurlijk, want het is beleid dat je toepast, dus in die zin wil je de informatie bij je houden.</t>
+  </si>
+  <si>
+    <t>Privacy of input documents / Sensitivity of input documents</t>
+  </si>
+  <si>
+    <t>Sensitivity of input</t>
+  </si>
+  <si>
+    <t>En het gevaar is dat er een datalek kan ontstaan, omdat je zomaar per ongeluk klantdata in die ChatGPT machine gooit. Dus dat is wel een ethisch risico.</t>
+  </si>
+  <si>
+    <t>Data breaches</t>
+  </si>
+  <si>
+    <t>Ethical problem</t>
+  </si>
+  <si>
+    <t>Wij schrijven beleid voor IT beheersing en IT processen.</t>
+  </si>
+  <si>
+    <t>IT control experience</t>
+  </si>
+  <si>
+    <t>Veel risk management, veel bezig geweest met implementatie, hoofd kwaliteitsmanagement geweest, veel bezig geweest met de inrichting van pipeline en advisering over hoe je dat beheerst kan doen.</t>
+  </si>
+  <si>
+    <t>Ik gebruik het zelf heel graag, dus ChatGPT gebruik ik veel, Bing, en ook al een tijdje die, als presentaties maak, laat ik de afbeelding genereren.</t>
+  </si>
+  <si>
+    <t>ChatGPT experience / text-to-image experience</t>
+  </si>
+  <si>
+    <t>Dus ik heb enig idee hoe het werkt en ik ben er zeker in geïnteresseerd, maar ik ben niet technisch onderlegd. Dus ik zou het niet kunnen nabouwen ofzo.</t>
+  </si>
+  <si>
+    <t>Interest in AI</t>
+  </si>
+  <si>
+    <t>Ja, de dingen waar je zelf bouwt, dan moet je op een of andere manier die data uit je zelfbouw applicaties kunnen halen en kunnen voeden aan het trainingsmiddel.</t>
+  </si>
+  <si>
+    <t>Data extraction from self built applications</t>
+  </si>
+  <si>
+    <t>Dus dan kan je wellicht gewoon de instructies van AWS en instructies van van ServiceNow en al die andere platformen gewoon kunnen voeden en dan heb je voor 90 a 80%, en sowieso gaan we steeds meer over op die standaard platformen</t>
+  </si>
+  <si>
+    <t>AI application in standard platforms</t>
+  </si>
+  <si>
+    <t>Ja ja, exact en voor de gestandaardiseerde pap heb je dat gewoon. Daarvoor is die documentatie er, maar voor zelfbouw applicaties zou dat er minder zijn denk ik of niet zo uitgebreid als een gestandaardiseerd platform.</t>
+  </si>
+  <si>
+    <t>Documentation for self built applications</t>
+  </si>
+  <si>
+    <t>Dus alle instructies, werk instructie niveau, die zou je daar allemaal in een groot trainingsmodel willen gooien.</t>
+  </si>
+  <si>
+    <t>Work instruction as input</t>
+  </si>
+  <si>
+    <t>En eigenlijk een taxonomie heb je ook nodig om die relaties voor te leggen, want dat zie je nog weleens bij LLM’s. Dat relaties niet goed worden uitgelegd en dat je gekke antwoorden krijgt en door een taxonomie te hebben, dus dus eigenlijk zeg maar een kerstboom van: dit is het hoofdbeleid, daar hangen deze sub beleidsstukken onder, daar horen deze werkinstructies onder, kan hij die relaties wellicht beter leggen.</t>
+  </si>
+  <si>
+    <t>Taxonomy as input / AI hallucination</t>
+  </si>
+  <si>
+    <t>Type of input / Quality of output</t>
+  </si>
+  <si>
+    <t>Nou, we willen het niet in de cloud hebben, die data, want dat is ons eigen beleid, en heel veel van die data wordt ook nog in Amerika verwerkt. Dat willen we ook niet, want dat is Europese wetgeving. Dus je moet zelf iets gaan neerzetten. En als je zelf iets gaat neerzetten, dan zit je met schaalproblemen.</t>
+  </si>
+  <si>
+    <t>Cloud policy / Scaling problems</t>
+  </si>
+  <si>
+    <t>Technical problems</t>
+  </si>
+  <si>
+    <t>Ja precies, dat is de ideale wereld, maar dat hangt en staat bij data, en goede data. Daar zit vaak de crux en die is er niet altijd, vaak niet, laat ik het zo zeggen.</t>
+  </si>
+  <si>
+    <t>Quality of data / Availability of data</t>
+  </si>
+  <si>
     <t>Quality of input</t>
   </si>
   <si>
-    <t>Zo'n systeem kan natuurlijk ook hallucineren, zoals ze dat zo mooi noemen, hè? Als je het over generatieve AI hebt, dus dat zit juist in het feit dat hij niet echt jouw vraag begrijpt, maar dat hij gewoon berekent: “Wat is het meest logische antwoord op basis van wat het kind het verleden gelezen heb?"</t>
-  </si>
-  <si>
-    <t>AI hallucination</t>
-  </si>
-  <si>
-    <t>Quality of output</t>
-  </si>
-  <si>
-    <t>Ik denk dat je in de basis dat je geen enorme risico's loopt. Nou moet ik eerlijk zeggen als je vanuit technisch perspectief goed weet hoe zo'n proces werkt dat je een heel eind moet kunnen komen.</t>
-  </si>
-  <si>
-    <t>Few technical problems</t>
-  </si>
-  <si>
-    <t>Ja, dan het wel lijkt alsof het klopt. Ja, dat is dan een potentieel risico dat je dus je risico's die je hebt geïdentificeerd of tot maatregelen hebt omgezet niet echt passen.</t>
-  </si>
-  <si>
-    <t>Of dat je te veel gelooft in het systeem en je gebruikt een generatieve AI systeem om te bedenken, als je een procesbeschrijving geeft. Waar zitten hier de potentiële risico's en je kijkt daar zelf niet kritisch naar, en het is door hallucinatie beïnvloed op een negatieve manier, dan heb je gewoon een minder effectief raamwerk.</t>
-  </si>
-  <si>
-    <t>AI hallucination / too much trust in output</t>
-  </si>
-  <si>
-    <t>Quality of output / Trust in AI / Mistake implications</t>
-  </si>
-  <si>
-    <t>Dus als jij een control framework wil maken en je gaat daar AI gebruiken, dan moet je natuurlijk wel kunnen beoordelen of dit nou een goede maatregel is bijvoorbeeld.</t>
-  </si>
-  <si>
-    <t>Dus het domein waar die zo een framework voor gaat maken, dus eigenlijk gaat het erom dat zo'n persoon goed de uitkomsten van zo'n AI systeem weet te beoordelen. Dus dat vraagt van een inhoudelijke kennis, vraagt kennis om de limitaties van zo'n systeem voldoende te weten.</t>
-  </si>
-  <si>
-    <t>User knowledge on AI systems / validation of output</t>
-  </si>
-  <si>
-    <t>Output validation / interaction AI</t>
-  </si>
-  <si>
-    <t>Ja, dat komt weer op dezelfde risico's die ik net noemde. Weet je wel, je krijgt gewoon een minder goed beheersingsraamwerk, waardoor je potentieel bepaalde maatregelen niet treft, die je eigenlijk wel moet treffen.</t>
-  </si>
-  <si>
-    <t>Lack of experience or training</t>
-  </si>
-  <si>
-    <t>Maar ook, en dat gaat wel ver, als je alleen maar AI systemen gaat gebruiken, dat je dan zelf niet goed meer nadenkt. Dan raak je zelf de competentie langzaam kwijt. Maar dat is meer een indirect gevolg, om het zo te zeggen.</t>
-  </si>
-  <si>
-    <t>Losing control skills</t>
-  </si>
-  <si>
-    <t>Output validation / future outlook</t>
-  </si>
-  <si>
-    <t>Het zou natuurlijk kunnen. Ja tuurlijk, ja, dat zou wel echt kunnen. Ja, hoe snel dat gaat weet ik ook niet, hè? Maar een beetje hetzelfde als met het navigatiesysteem. Vroeger reed Iedereen zonder navigatiesysteem, zocht het even op, en reden er gewoon naartoe en dan kwam het wel goed, maar nu rijdt iedereen met navigatiesysteem en vergeten ze gewoon de route.</t>
-  </si>
-  <si>
-    <t>Losing skills over time</t>
-  </si>
-  <si>
-    <t>Ik denk in dit geval dat vooral de kennis van degene die zo'n systeem gebruikt, dat dat doorslaggevend is. Als dat op orde is om het zo maar te zeggen, dan denk ik dat die combi van AI en het maken van beheersingsraamwerken best wel een krachtige zou kunnen zijn, juist omdat je in die fase van het identificeren van risico's en het bedenken van passende maatregelen wat creativiteit en denkwerk kan gebruiken.</t>
-  </si>
-  <si>
-    <t>User knowledge / AI for risk identification / AI for risk response</t>
-  </si>
-  <si>
-    <t>Interaction AI / Implementation AI</t>
-  </si>
-  <si>
-    <t>Het vraagt ook kennis over de input data die erin is, weet je wel: “ben je ervan overtuigd dat de kwaliteit voldoende is? Ja of nee?”</t>
-  </si>
-  <si>
-    <t>User knowledge on input data / validation of input</t>
-  </si>
-  <si>
-    <t>User requirement / Technical requirement</t>
-  </si>
-  <si>
-    <t>Ook daar zitten heel veel maatregelen in, dus dat beweegt ook continu. Die technologie beweegt snel en daarmee bewegen ook je beheersingsmaatregelen mee.</t>
-  </si>
-  <si>
-    <t>Continuity of potential risks</t>
-  </si>
-  <si>
-    <t>Implementation AI / Continuous control creation</t>
-  </si>
-  <si>
-    <t>Ik had een heel raamwerk opgezet, voor CSD maatregelen en ik was daar een half jaar mee bezig geweest en vervolgens vraag ik aan ChatGPT: “Geef mij eens de…” Dat was toen net in opkomst, dat net op de markt, dus ik probeerde wat en vervolgens krijg ik gewoon exact het lijstje waar ik een half jaar aan gewerkt heb.</t>
-  </si>
-  <si>
-    <t>AI for risk control creation</t>
-  </si>
-  <si>
-    <t>AI experience / Implementation AI</t>
-  </si>
-  <si>
-    <t>Zover is ChatGPT nog niet, dat hij hele onderliggende standaarden van platformen precies kent, maar daar zou je wel, door het AI model te voeden met best practices, maar ook de standaarden vanuit de platformen, die link proberen te leggen.</t>
-  </si>
-  <si>
-    <t>AI capability for general risk identification</t>
-  </si>
-  <si>
-    <t>Dus dat eerste niveau, dat haalt AI nog wel op dit moment. Die kan gewoon prima zeggen: “Ja, je moet je verlies op data, maar dan moet je een backup maatregel treffen.” Dat dat snapt hij wel.</t>
-  </si>
-  <si>
-    <t>AI for risk identification / AI for risk severity assessment</t>
-  </si>
-  <si>
-    <t>Die is voor ons heel moeilijk te maken omdat wij geen techneuten zijn, maar wel verstand hebben van de control objectives, maar een AI zou wellicht wel die taal slag kunnen maken, omdat die alles kan leren van het platform door hem te trainen op het platform. Je kunt ze alles leren van die control objectives en die kan wellicht wel makkelijk die link leggen tussen de werkelijkheid en de best practices.</t>
-  </si>
-  <si>
-    <t>AI for control formulation</t>
-  </si>
-  <si>
-    <t>Zeker als je gaat kijken naar een implementatie, hè? Dus heb je imaging, maar ook text-to-speech en text-to-video. Die zouden heel erg kunnen helpen bij de implementatie van control frameworks.</t>
-  </si>
-  <si>
-    <t>Implementation of other generative AI types / Implementation of control frameworks</t>
-  </si>
-  <si>
-    <t>Dus we hebben allemaal control objectives, en daar zetten we toetsen bij uit, bij teams, om te checken of zij voldoen aan die controls. Je zou wellicht ook die data kunnen laten trainen door de AI. Dus dat is eigenlijk een soort monitoring tool AI</t>
-  </si>
-  <si>
-    <t>Process monitoring by AI / Continuous control monitoring</t>
-  </si>
-  <si>
-    <t>Ja, eigenlijk een interne AI slimme auditor, die kijkt waar het allemaal mis gaat, en waar het goed gaat op basis daarvan een soort adviezen geeft.</t>
-  </si>
-  <si>
-    <t>AI supported continuous auditing</t>
-  </si>
-  <si>
-    <t>Dus hoe zou je dat integreren, en met welke tools? Doe je dat in een chatbot of in een webbrowser? Ja, dat lijkt me wel cruciaal voor de gebruikers. En hoe integreer je dat dan weer met je control framework tool?</t>
-  </si>
-  <si>
-    <t>Choice on type of AI integration</t>
-  </si>
-  <si>
-    <t>Het zou ideaal zijn als dat gewoon een op een is. “Dit zijn de controls. Hij maakt ze aan. Hij koppelt ze aan de systemen waar het voor geldt.” Dat zou wel de ideale wereld zijn.</t>
-  </si>
-  <si>
-    <t>Wish for completely connected system</t>
-  </si>
-  <si>
-    <t>Technologie beweegt continu. Dus wil je kort iteratief die aanpassingen doen en mee laten bewegen met de technologie je ook je control framework. Ja, en als je dat in een systeem doet. Ja, dan ben je spekkoper natuurlijk.</t>
-  </si>
-  <si>
-    <t>Continuous control adaptation / continuous risk identification</t>
-  </si>
-  <si>
-    <t>Ja, ja, en dat maar dat je het document er niet eens in hoeft te gooien, maar dat je ze connect met het internet. Dat je hem voedt met technologie platformen, instructies en continu laat itereren op dagelijkse basis, dat je eigenlijk een knopje indrukt. “Ik heb een nieuwe control bedacht en gevonden, omdat er nieuwe technologie is of er gaan controles af."</t>
-  </si>
-  <si>
-    <t>Continuous control creation / Completely connected system</t>
-  </si>
-  <si>
-    <t>Als je dat continu mee laat bewegen door een AI-model, ja dan kan je daar de factor 10 100 misschien wel minder mensen aan doen.</t>
-  </si>
-  <si>
-    <t>Control team reduction</t>
-  </si>
-  <si>
-    <t>Future outlook</t>
-  </si>
-  <si>
-    <t>Nee, ja, we hebben een heel stom beleid binnen ORGANISATIE C. Ze zijn bang dat wij conclusies trekken uit verkeerde informatie, omdat je de bron niet kunt checken met AI, of niet bij alle platformen.</t>
-  </si>
-  <si>
-    <t>AI policy at organisation</t>
-  </si>
-  <si>
-    <t>Current implementation AI / Output validation</t>
-  </si>
-  <si>
-    <t>AI implementation / Participant information / User requirement</t>
-  </si>
-  <si>
-    <t>Maar hoe de configuratie vervolgens in elkaar zit, dat is waar wij continu tegenaan lopen als beleidspartij binnen ORGANISATIE C. Hoe maak je de vertaalslag van controls naar daadwerkelijke instructies in de tooling en in de werkelijkheid?</t>
-  </si>
-  <si>
-    <t>We hebben ook heel veel beleid binnen ORGANISATIE C en dat is allemaal een documentjes gestopt. Ja, er is niemand die dat leest. Dus wat je aan die wet wilt vragen is, LLM, al je beleidsstukken… Het laten voeden en laten trainen en daar dan vragen over stellen. “Wat moet ik doen? Aan welke eisen moet ik voldoen?” Als ik test, geeft hij gewoon een lijstje met eisen die hangen aan testen.</t>
-  </si>
-  <si>
-    <t>Policy documents as input / Risk identification step</t>
-  </si>
-  <si>
-    <t>Type of input / Implementation AI</t>
-  </si>
-  <si>
-    <t>En ook daar hangt en staat het weer bij de data. Je moet wel die data hebben om dat antwoord te kunnen geven, maar veel van die data hebben we, alleen die is niet vindbaar op dit moment. Dus het vindbaar maken van beleid zou daarbij kunnen helpen. Dus je control framework hoort daarbij, is ook een van je beleidsstukken.</t>
-  </si>
-  <si>
-    <t>AI for risk identification / Policy documents as input / Existing control frameworks as input</t>
-  </si>
-  <si>
-    <t>Implementation AI / Type of input</t>
-  </si>
-  <si>
-    <t>Dan kunnen we trainingsprogramma's maken die heel makkelijk te maken zijn met AI. Het gaat ons namelijk heel veel tijd schelen om dingen uit te leggen.</t>
-  </si>
-  <si>
-    <t>Training on control implementation / Implementation of other generative AI types</t>
-  </si>
-  <si>
-    <t>Implementation AI / User training</t>
-  </si>
-  <si>
-    <t>Ja, zeker als je naar theorie kijkt, wel. Alleen in de praktijk zie je dat er heel veel best practices op de markt zijn waar je, zeker voor IT, informatie uit kunt halen, zoals COBIT.</t>
-  </si>
-  <si>
-    <t>Best practice control frameworks</t>
-  </si>
-  <si>
-    <t>Intensivity step</t>
-  </si>
-  <si>
-    <t>Dat is voor mijn branche mijn belangrijkste bron geweest voor het maken van het risico framework, omdat we eigenlijk al over deze dingen hebben nagedacht voordat je daarmee gaat starten. Dus COBIT, maar ook NIST en ISO zijn wel raamwerken die eigenlijk dit voorwerk al gedaan hebben.</t>
-  </si>
-  <si>
-    <t>Bijvoorbeeld: back up. Je weet gewoon dat de maatregel ‘back up’ nodig is, en dan hoef jij geen risico identificatie voor te doen.</t>
-  </si>
-  <si>
-    <t>En die risicobeheersing en respons, dan maak je zoveel mogelijk gebruik van de bedachte raamwerk dingen die er al zijn, want je kunt het zelf opnieuw gaan uitvinden, maar er zijn wel veel knappe koppen daarover nagedacht en daar maak je dan gebruik van.</t>
-  </si>
-  <si>
-    <t>Ja en die moet je natuurlijk wel doorvertalen naar de praktijk en de werkelijkheid van je organisatie, hè? Alleen hoe doe je dat dan in de praktijk bij je organisatie? Met welke technologie doe je dat en hoe past die controle objective op die technologie?</t>
-  </si>
-  <si>
-    <t>De why en de what kun je wel uit het risico framework halen, maar dat how niet. Die moet je zelf bedenken en toepassen en dan moet je in gesprek gaan met engineers.</t>
-  </si>
-  <si>
-    <t>Effort of control creation process</t>
-  </si>
-  <si>
-    <t>Je moet voor elke technologie, en we hebben nogal wat technologieën en applicaties, elke applicatie is weer anders en elk platform is weer anders en daar moet je mee omgaan en kijken hoe je daar invulling aan geeft.</t>
-  </si>
-  <si>
-    <t>Context of systems</t>
-  </si>
-  <si>
-    <t>Ja, daar gaat wel de meeste tijd in zitten en wij hebben ook nog heel veel zelfbouw. Ja, en daar moet je echt zelf de ontdekking gaan doen.</t>
-  </si>
-  <si>
-    <t>Self built applications / effort of risk identification</t>
-  </si>
-  <si>
-    <t>Ja, dus de opzet is vrij makkelijk. Dus wat ik net ook al een beetje zei. Het is veel hergebruik van bestaande dingen. Je hebt binnen een dag een lijstje met je blaadje controls, je controleraamwerk. Maar vervolgens de vertaling naar de praktijk. Dat is het lastigste. En afstemming met je stakeholders. Daar gaat gewoon de meeste tijd in zitten.</t>
-  </si>
-  <si>
-    <t>Intensivity step / Type of input</t>
-  </si>
-  <si>
-    <t>Control process / Technical requirement</t>
-  </si>
-  <si>
-    <t>Ik denk dat er weinig privacygevoelige informatie in ons beleidsstuk staat. Het is wel gevoelige informatie natuurlijk, want het is beleid dat je toepast, dus in die zin wil je de informatie bij je houden.</t>
-  </si>
-  <si>
-    <t>Privacy of input documents / Sensitivity of input documents</t>
-  </si>
-  <si>
-    <t>Sensitivity of input</t>
-  </si>
-  <si>
-    <t>En het gevaar is dat er een datalek kan ontstaan, omdat je zomaar per ongeluk klantdata in die ChatGPT machine gooit. Dus dat is wel een ethisch risico.</t>
-  </si>
-  <si>
-    <t>Data breaches</t>
-  </si>
-  <si>
-    <t>Ethical problem</t>
-  </si>
-  <si>
-    <t>Wij schrijven beleid voor IT beheersing en IT processen.</t>
-  </si>
-  <si>
-    <t>IT control experience</t>
-  </si>
-  <si>
-    <t>Veel risk management, veel bezig geweest met implementatie, hoofd kwaliteitsmanagement geweest, veel bezig geweest met de inrichting van pipeline en advisering over hoe je dat beheerst kan doen.</t>
-  </si>
-  <si>
-    <t>Ik gebruik het zelf heel graag, dus ChatGPT gebruik ik veel, Bing, en ook al een tijdje die, als presentaties maak, laat ik de afbeelding genereren.</t>
-  </si>
-  <si>
-    <t>ChatGPT experience / text-to-image experience</t>
-  </si>
-  <si>
-    <t>Dus ik heb enig idee hoe het werkt en ik ben er zeker in geïnteresseerd, maar ik ben niet technisch onderlegd. Dus ik zou het niet kunnen nabouwen ofzo.</t>
-  </si>
-  <si>
-    <t>Interest in AI</t>
-  </si>
-  <si>
-    <t>Ja, de dingen waar je zelf bouwt, dan moet je op een of andere manier die data uit je zelfbouw applicaties kunnen halen en kunnen voeden aan het trainingsmiddel.</t>
-  </si>
-  <si>
-    <t>Data extraction from self built applications</t>
-  </si>
-  <si>
-    <t>Dus dan kan je wellicht gewoon de instructies van AWS en instructies van van ServiceNow en al die andere platformen gewoon kunnen voeden en dan heb je voor 90 a 80%, en sowieso gaan we steeds meer over op die standaard platformen</t>
-  </si>
-  <si>
-    <t>AI application in standard platforms</t>
-  </si>
-  <si>
-    <t>Ja ja, exact en voor de gestandaardiseerde pap heb je dat gewoon. Daarvoor is die documentatie er, maar voor zelfbouw applicaties zou dat er minder zijn denk ik of niet zo uitgebreid als een gestandaardiseerd platform.</t>
-  </si>
-  <si>
-    <t>Documentation for self built applications</t>
-  </si>
-  <si>
-    <t>Dus alle instructies, werk instructie niveau, die zou je daar allemaal in een groot trainingsmodel willen gooien.</t>
-  </si>
-  <si>
-    <t>Work instruction as input</t>
-  </si>
-  <si>
-    <t>En eigenlijk een taxonomie heb je ook nodig om die relaties voor te leggen, want dat zie je nog weleens bij LLM’s. Dat relaties niet goed worden uitgelegd en dat je gekke antwoorden krijgt en door een taxonomie te hebben, dus dus eigenlijk zeg maar een kerstboom van: dit is het hoofdbeleid, daar hangen deze sub beleidsstukken onder, daar horen deze werkinstructies onder, kan hij die relaties wellicht beter leggen.</t>
-  </si>
-  <si>
-    <t>Taxonomy as input / AI hallucination</t>
-  </si>
-  <si>
-    <t>Type of input / Quality of output</t>
-  </si>
-  <si>
-    <t>Nou, we willen het niet in de cloud hebben, die data, want dat is ons eigen beleid, en heel veel van die data wordt ook nog in Amerika verwerkt. Dat willen we ook niet, want dat is Europese wetgeving. Dus je moet zelf iets gaan neerzetten. En als je zelf iets gaat neerzetten, dan zit je met schaalproblemen.</t>
-  </si>
-  <si>
-    <t>Cloud policy / Scaling problems</t>
-  </si>
-  <si>
-    <t>Technical problems</t>
-  </si>
-  <si>
-    <t>Ja precies, dat is de ideale wereld, maar dat hangt en staat bij data, en goede data. Daar zit vaak de crux en die is er niet altijd, vaak niet, laat ik het zo zeggen.</t>
-  </si>
-  <si>
-    <t>Quality of data / Availability of data</t>
-  </si>
-  <si>
     <t>Oude data, dus soms heb je legacy, hè. Zit je met Legacy, dus bijvoorbeeld: dat nooit het belang geacht om goed, datum en even adres en van iedere medewerker of van iedere klant vast te leggen, omdat dat op dat moment niet relevant was, maar later bleek het wel relevant</t>
   </si>
   <si>
@@ -1053,6 +1053,9 @@
   </si>
   <si>
     <t>Quality of input documents / Availability of input documents</t>
+  </si>
+  <si>
+    <t>Quality of input / availability of input</t>
   </si>
   <si>
     <t>En waar onze security managers vooral bang voor zijn, is dat wij bepaalde, en dat is niet voor beleid, maar vooral voor medewerkers die met klanten in contact staan, is dat zij op basis van ChatGPT verkeerde conclusies trekken, en dat dat voor waarheid wordt aangenomen en daardoor een verkeerde beslissing nemen. Dat is de angst.</t>
@@ -1573,7 +1576,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>3</v>
@@ -1584,10 +1587,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
@@ -1601,10 +1604,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
@@ -1618,10 +1621,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -1652,10 +1655,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -1669,10 +1672,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
@@ -1686,16 +1689,16 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2">
         <v>1.0</v>
@@ -1703,16 +1706,16 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2">
         <v>1.0</v>
@@ -1720,16 +1723,16 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2">
         <v>1.0</v>
@@ -1737,16 +1740,16 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E16" s="2">
         <v>1.0</v>
@@ -1754,16 +1757,16 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2">
         <v>1.0</v>
@@ -1771,16 +1774,16 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2">
         <v>1.0</v>
@@ -1788,16 +1791,16 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2">
         <v>1.0</v>
@@ -1805,16 +1808,16 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2">
         <v>1.0</v>
@@ -1822,16 +1825,16 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2">
         <v>1.0</v>
@@ -1839,16 +1842,16 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2">
         <v>1.0</v>
@@ -1856,16 +1859,16 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E23" s="2">
         <v>1.0</v>
@@ -1873,16 +1876,16 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2">
         <v>1.0</v>
@@ -1890,16 +1893,16 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2">
         <v>1.0</v>
@@ -1907,16 +1910,16 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" s="2">
         <v>1.0</v>
@@ -1924,16 +1927,16 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2">
         <v>1.0</v>
@@ -1941,16 +1944,16 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2">
         <v>1.0</v>
@@ -1958,16 +1961,16 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2">
         <v>1.0</v>
@@ -1975,16 +1978,16 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2">
         <v>1.0</v>
@@ -1992,16 +1995,16 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2">
         <v>1.0</v>
@@ -2009,16 +2012,16 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="E32" s="2">
         <v>1.0</v>
@@ -2026,16 +2029,16 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2">
         <v>1.0</v>
@@ -2043,16 +2046,16 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2">
         <v>1.0</v>
@@ -2060,16 +2063,16 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E35" s="2">
         <v>1.0</v>
@@ -2077,16 +2080,16 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E36" s="2">
         <v>1.0</v>
@@ -2094,16 +2097,16 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E37" s="2">
         <v>1.0</v>
@@ -2111,16 +2114,16 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E38" s="2">
         <v>1.0</v>
@@ -2128,16 +2131,16 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E39" s="2">
         <v>1.0</v>
@@ -2145,16 +2148,16 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E40" s="2">
         <v>1.0</v>
@@ -2162,16 +2165,16 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E41" s="2">
         <v>1.0</v>
@@ -2179,16 +2182,16 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E42" s="2">
         <v>1.0</v>
@@ -2196,16 +2199,16 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2">
         <v>1.0</v>
@@ -2213,16 +2216,16 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2">
         <v>1.0</v>
@@ -2230,16 +2233,16 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2">
         <v>1.0</v>
@@ -2247,16 +2250,16 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2">
         <v>1.0</v>
@@ -2264,16 +2267,16 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2">
         <v>1.0</v>
@@ -2281,16 +2284,16 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E48" s="2">
         <v>1.0</v>
@@ -2298,16 +2301,16 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="E49" s="2">
         <v>1.0</v>
@@ -2315,16 +2318,16 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E50" s="2">
         <v>1.0</v>
@@ -2332,16 +2335,16 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="E51" s="2">
         <v>1.0</v>
@@ -2349,7 +2352,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>5</v>
@@ -2358,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E52" s="2">
         <v>1.0</v>
@@ -2366,16 +2369,16 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E53" s="2">
         <v>1.0</v>
@@ -2383,16 +2386,16 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E54" s="2">
         <v>1.0</v>
@@ -2400,16 +2403,16 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E55" s="2">
         <v>1.0</v>
@@ -2417,16 +2420,16 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E56" s="2">
         <v>1.0</v>
@@ -2434,16 +2437,16 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E57" s="2">
         <v>1.0</v>
@@ -2451,16 +2454,16 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="2">
         <v>1.0</v>
@@ -2468,16 +2471,16 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="2">
         <v>1.0</v>
@@ -2485,16 +2488,16 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2">
         <v>1.0</v>
@@ -2502,16 +2505,16 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E61" s="2">
         <v>1.0</v>
@@ -2519,10 +2522,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>2</v>
@@ -2536,10 +2539,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>2</v>
@@ -2553,10 +2556,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>2</v>
@@ -2570,10 +2573,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>2</v>
@@ -2587,13 +2590,13 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>3</v>
@@ -2604,10 +2607,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>2</v>
@@ -2621,10 +2624,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>2</v>
@@ -2638,10 +2641,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>2</v>
@@ -2655,13 +2658,13 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>3</v>
@@ -2672,13 +2675,13 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>3</v>
@@ -2689,16 +2692,16 @@
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E72" s="2">
         <v>2.0</v>
@@ -2706,16 +2709,16 @@
     </row>
     <row r="73">
       <c r="A73" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E73" s="2">
         <v>2.0</v>
@@ -2723,16 +2726,16 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E74" s="2">
         <v>2.0</v>
@@ -2740,16 +2743,16 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E75" s="2">
         <v>2.0</v>
@@ -2757,16 +2760,16 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="E76" s="2">
         <v>2.0</v>
@@ -2774,16 +2777,16 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E77" s="2">
         <v>2.0</v>
@@ -2791,16 +2794,16 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E78" s="2">
         <v>2.0</v>
@@ -2808,16 +2811,16 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E79" s="2">
         <v>2.0</v>
@@ -2825,16 +2828,16 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E80" s="2">
         <v>2.0</v>
@@ -2842,16 +2845,16 @@
     </row>
     <row r="81">
       <c r="A81" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E81" s="2">
         <v>2.0</v>
@@ -2859,16 +2862,16 @@
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E82" s="2">
         <v>2.0</v>
@@ -2876,16 +2879,16 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E83" s="2">
         <v>2.0</v>
@@ -2893,16 +2896,16 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E84" s="2">
         <v>2.0</v>
@@ -2910,16 +2913,16 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E85" s="2">
         <v>2.0</v>
@@ -2927,16 +2930,16 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E86" s="2">
         <v>2.0</v>
@@ -2944,16 +2947,16 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E87" s="2">
         <v>2.0</v>
@@ -2961,16 +2964,16 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E88" s="2">
         <v>2.0</v>
@@ -2978,16 +2981,16 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E89" s="2">
         <v>2.0</v>
@@ -2995,16 +2998,16 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2">
         <v>2.0</v>
@@ -3012,16 +3015,16 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E91" s="2">
         <v>2.0</v>
@@ -3029,16 +3032,16 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2">
         <v>2.0</v>
@@ -3046,16 +3049,16 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2">
         <v>2.0</v>
@@ -3069,10 +3072,10 @@
         <v>230</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E94" s="2">
         <v>2.0</v>
@@ -3083,13 +3086,13 @@
         <v>231</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E95" s="2">
         <v>2.0</v>
@@ -3106,7 +3109,7 @@
         <v>234</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2">
         <v>2.0</v>
@@ -3117,13 +3120,13 @@
         <v>235</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E97" s="2">
         <v>2.0</v>
@@ -3140,7 +3143,7 @@
         <v>238</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E98" s="2">
         <v>2.0</v>
@@ -3157,7 +3160,7 @@
         <v>238</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E99" s="2">
         <v>2.0</v>
@@ -3174,7 +3177,7 @@
         <v>243</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E100" s="2">
         <v>2.0</v>
@@ -3191,7 +3194,7 @@
         <v>243</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E101" s="2">
         <v>2.0</v>
@@ -3208,7 +3211,7 @@
         <v>248</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E102" s="2">
         <v>2.0</v>
@@ -3239,7 +3242,7 @@
         <v>253</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>3</v>
@@ -3250,13 +3253,13 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>3</v>
@@ -3267,10 +3270,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>2</v>
@@ -3284,10 +3287,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>2</v>
@@ -3301,10 +3304,10 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>2</v>
@@ -3318,10 +3321,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>2</v>
@@ -3335,10 +3338,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>2</v>
@@ -3352,10 +3355,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>2</v>
@@ -3369,10 +3372,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>2</v>
@@ -3386,10 +3389,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>2</v>
@@ -3403,10 +3406,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>2</v>
@@ -3420,10 +3423,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>2</v>
@@ -3437,13 +3440,13 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>3</v>
@@ -3454,16 +3457,16 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="E117" s="2">
         <v>3.0</v>
@@ -3471,16 +3474,16 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E118" s="2">
         <v>3.0</v>
@@ -3488,16 +3491,16 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="C119" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="D119" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E119" s="2">
         <v>3.0</v>
@@ -3505,16 +3508,16 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="D120" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E120" s="2">
         <v>3.0</v>
@@ -3522,16 +3525,16 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="D121" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E121" s="2">
         <v>3.0</v>
@@ -3539,16 +3542,16 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="D122" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E122" s="2">
         <v>3.0</v>
@@ -3556,16 +3559,16 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="D123" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E123" s="2">
         <v>3.0</v>
@@ -3573,16 +3576,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E124" s="2">
         <v>3.0</v>
@@ -3590,16 +3593,16 @@
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E125" s="2">
         <v>3.0</v>
@@ -3607,16 +3610,16 @@
     </row>
     <row r="126">
       <c r="A126" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E126" s="2">
         <v>3.0</v>
@@ -3624,16 +3627,16 @@
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>303</v>
-      </c>
       <c r="C127" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E127" s="2">
         <v>3.0</v>
@@ -3641,16 +3644,16 @@
     </row>
     <row r="128">
       <c r="A128" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="C128" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E128" s="2">
         <v>3.0</v>
@@ -3658,16 +3661,16 @@
     </row>
     <row r="129">
       <c r="A129" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="C129" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E129" s="2">
         <v>3.0</v>
@@ -3675,16 +3678,16 @@
     </row>
     <row r="130">
       <c r="A130" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="E130" s="2">
         <v>3.0</v>
@@ -3692,16 +3695,16 @@
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="C131" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="D131" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E131" s="2">
         <v>3.0</v>
@@ -3709,16 +3712,16 @@
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="D132" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E132" s="2">
         <v>3.0</v>
@@ -3726,16 +3729,16 @@
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>318</v>
-      </c>
       <c r="C133" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E133" s="2">
         <v>3.0</v>
@@ -3743,16 +3746,16 @@
     </row>
     <row r="134">
       <c r="A134" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E134" s="2">
         <v>3.0</v>
@@ -3760,16 +3763,16 @@
     </row>
     <row r="135">
       <c r="A135" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="C135" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E135" s="2">
         <v>3.0</v>
@@ -3777,16 +3780,16 @@
     </row>
     <row r="136">
       <c r="A136" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>323</v>
-      </c>
       <c r="C136" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E136" s="2">
         <v>3.0</v>
@@ -3794,16 +3797,16 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="C137" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E137" s="2">
         <v>3.0</v>
@@ -3811,16 +3814,16 @@
     </row>
     <row r="138">
       <c r="A138" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="C138" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E138" s="2">
         <v>3.0</v>
@@ -3828,16 +3831,16 @@
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>329</v>
-      </c>
       <c r="C139" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E139" s="2">
         <v>3.0</v>
@@ -3845,16 +3848,16 @@
     </row>
     <row r="140">
       <c r="A140" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="C140" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E140" s="2">
         <v>3.0</v>
@@ -3862,16 +3865,16 @@
     </row>
     <row r="141">
       <c r="A141" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>334</v>
-      </c>
       <c r="D141" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E141" s="2">
         <v>3.0</v>
@@ -3879,16 +3882,16 @@
     </row>
     <row r="142">
       <c r="A142" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>337</v>
-      </c>
       <c r="D142" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E142" s="2">
         <v>3.0</v>
@@ -3896,16 +3899,16 @@
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="D143" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E143" s="2">
         <v>3.0</v>
@@ -3919,10 +3922,10 @@
         <v>341</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E144" s="2">
         <v>3.0</v>
@@ -3939,7 +3942,7 @@
         <v>344</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E145" s="2">
         <v>3.0</v>
@@ -3953,10 +3956,10 @@
         <v>346</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E146" s="2">
         <v>3.0</v>
@@ -3964,16 +3967,16 @@
     </row>
     <row r="147">
       <c r="A147" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E147" s="2">
         <v>3.0</v>
@@ -3981,16 +3984,16 @@
     </row>
     <row r="148">
       <c r="A148" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E148" s="2">
         <v>3.0</v>
@@ -3998,16 +4001,16 @@
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E149" s="2">
         <v>3.0</v>
@@ -4015,16 +4018,16 @@
     </row>
     <row r="150">
       <c r="A150" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E150" s="2">
         <v>3.0</v>
@@ -4032,16 +4035,16 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E151" s="2">
         <v>3.0</v>
@@ -4049,16 +4052,16 @@
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E152" s="2">
         <v>3.0</v>
@@ -4066,16 +4069,16 @@
     </row>
     <row r="153">
       <c r="A153" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E153" s="2">
         <v>3.0</v>
@@ -4083,16 +4086,16 @@
     </row>
     <row r="154">
       <c r="A154" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E154" s="2">
         <v>3.0</v>
@@ -4100,16 +4103,16 @@
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E155" s="2">
         <v>3.0</v>
@@ -4117,16 +4120,16 @@
     </row>
     <row r="156">
       <c r="A156" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>368</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E156" s="2">
         <v>3.0</v>
@@ -4134,16 +4137,16 @@
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E157" s="2">
         <v>3.0</v>
@@ -4151,16 +4154,16 @@
     </row>
     <row r="158">
       <c r="A158" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E158" s="2">
         <v>3.0</v>
@@ -4168,33 +4171,33 @@
     </row>
     <row r="159">
       <c r="A159" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E160" s="2">
         <v>1.0</v>
